--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="936" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">1: Use raw data from HST cameras
+          <t>1: Use raw data from HST cameras
 0: make an auroral phantom using “TrueArc” parameters below</t>
         </r>
       </text>
@@ -51,7 +51,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Factor of downsampling in energy space</t>
+          <t>Factor of downsampling in energy space</t>
         </r>
       </text>
     </comment>
@@ -64,7 +64,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">[nm] for plotting only</t>
+          <t>[nm] for plotting only</t>
         </r>
       </text>
     </comment>
@@ -77,7 +77,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">none
+          <t>none
 bg3</t>
         </r>
       </text>
@@ -91,7 +91,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">1: use dahlgren 2013 eigenprofiles
+          <t>1: use dahlgren 2013 eigenprofiles
 0: use locally computed Transcar profiles</t>
         </r>
       </text>
@@ -107,7 +107,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Use this normally</t>
+          <t>Use this normally</t>
         </r>
       </text>
     </comment>
@@ -121,7 +121,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Arbitrary: just spread angles across pixels linearly
+          <t>Arbitrary: just spread angles across pixels linearly
 Astrometry: calibrated pixels to skymap</t>
         </r>
       </text>
@@ -137,7 +137,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">transcar
+          <t>transcar
 arb</t>
         </r>
       </text>
@@ -153,7 +153,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">ArbChapman: User-placed chapman arc(s)
+          <t>ArbChapman: User-placed chapman arc(s)
 SmartChapman: two-step JLS algorithm (not yet implemented)
 backproj: using simple inv(L)*d
 tsvd: truncated SVD</t>
@@ -170,7 +170,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">LineLength: To be consistent with definition of Rayleighs</t>
+          <t>LineLength: To be consistent with definition of Rayleighs</t>
         </r>
       </text>
     </comment>
@@ -183,7 +183,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Put Z at end for UTC—required!</t>
+          <t>Put Z at end for UTC—required!</t>
         </r>
       </text>
     </comment>
@@ -207,7 +207,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">1: use this camera (necessary when computing L)
+          <t>1: use this camera (necessary when computing L)
 0: ignore this camera</t>
         </r>
       </text>
@@ -222,24 +222,10 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">These two options (must) only take effort for “arbitrary” angle mapping!
+          <t>These two options (must) only take effort for “arbitrary” angle mapping!
 3.1436km: 88.3 deg
 10km: 86.5 deg
 50km: 76 deg, 30.5 deg fov, 1500km max length</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Factor to scale data numbers by (1: keep original data numbers)</t>
         </r>
       </text>
     </comment>
@@ -253,7 +239,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Support width (pixels) for smoothing</t>
+          <t>Support width (pixels) for smoothing</t>
         </r>
       </text>
     </comment>
@@ -266,7 +252,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Photoelectron/data number</t>
+          <t>Photoelectron/data number</t>
         </r>
       </text>
     </comment>
@@ -275,7 +261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
   <si>
     <t>Sim</t>
   </si>
@@ -313,6 +299,9 @@
     <t>ActualDataDir</t>
   </si>
   <si>
+    <t>~/data</t>
+  </si>
+  <si>
     <t>BG3transFN</t>
   </si>
   <si>
@@ -532,85 +521,91 @@
     <t>fullFileStartUTC</t>
   </si>
   <si>
+    <t>2013-04-14T06:59:55Z</t>
+  </si>
+  <si>
+    <t>2013-04-14T07:00:07Z</t>
+  </si>
+  <si>
+    <t>timeShiftSec</t>
+  </si>
+  <si>
+    <t>frameRateHz</t>
+  </si>
+  <si>
+    <t>rotCCW</t>
+  </si>
+  <si>
+    <t>flipLR</t>
+  </si>
+  <si>
+    <t>flipUD</t>
+  </si>
+  <si>
+    <t>transpose</t>
+  </si>
+  <si>
+    <t>fn</t>
+  </si>
+  <si>
+    <t>2013-04-14T07-00-CamSer7196_frames_363000-1-369200.DMCdata</t>
+  </si>
+  <si>
+    <t>2013-04-14T07-00-CamSer1387_frames_205111-1-208621.DMCdata</t>
+  </si>
+  <si>
+    <t>plotMinVal</t>
+  </si>
+  <si>
+    <t>plotMaxVal</t>
+  </si>
+  <si>
+    <t>intensityScaleFactor</t>
+  </si>
+  <si>
+    <t>lowerthres</t>
+  </si>
+  <si>
+    <t>debiasData</t>
+  </si>
+  <si>
+    <t>smoothspan</t>
+  </si>
+  <si>
+    <t>savgolOrder</t>
+  </si>
+  <si>
+    <t>xPix</t>
+  </si>
+  <si>
+    <t>yPix</t>
+  </si>
+  <si>
+    <t>xBin</t>
+  </si>
+  <si>
+    <t>yBin</t>
+  </si>
+  <si>
+    <t>nHead16</t>
+  </si>
+  <si>
+    <t>latWGS84</t>
+  </si>
+  <si>
+    <t>lonWGS84</t>
+  </si>
+  <si>
+    <t>Bincl</t>
+  </si>
+  <si>
+    <t>Bdecl</t>
+  </si>
+  <si>
+    <t>Bepoch</t>
+  </si>
+  <si>
     <t>2013-04-14T08:54:00Z</t>
-  </si>
-  <si>
-    <t>timeShiftSec</t>
-  </si>
-  <si>
-    <t>frameRateHz</t>
-  </si>
-  <si>
-    <t>rotCCW</t>
-  </si>
-  <si>
-    <t>flipLR</t>
-  </si>
-  <si>
-    <t>flipUD</t>
-  </si>
-  <si>
-    <t>transpose</t>
-  </si>
-  <si>
-    <t>fn</t>
-  </si>
-  <si>
-    <t>~/data/2013-04-14T07-00-CamSer7196_frames_363000-1-369200.DMCdata</t>
-  </si>
-  <si>
-    <t>~/data/2013-04-14T07-00-CamSer1387_frames_205111-1-208621.DMCdata</t>
-  </si>
-  <si>
-    <t>plotMinVal</t>
-  </si>
-  <si>
-    <t>plotMaxVal</t>
-  </si>
-  <si>
-    <t>intensityScaleFactor</t>
-  </si>
-  <si>
-    <t>lowerthres</t>
-  </si>
-  <si>
-    <t>debiasData</t>
-  </si>
-  <si>
-    <t>smoothspan</t>
-  </si>
-  <si>
-    <t>savgolOrder</t>
-  </si>
-  <si>
-    <t>xPix</t>
-  </si>
-  <si>
-    <t>yPix</t>
-  </si>
-  <si>
-    <t>xBin</t>
-  </si>
-  <si>
-    <t>yBin</t>
-  </si>
-  <si>
-    <t>nHead16</t>
-  </si>
-  <si>
-    <t>latWGS84</t>
-  </si>
-  <si>
-    <t>lonWGS84</t>
-  </si>
-  <si>
-    <t>Bincl</t>
-  </si>
-  <si>
-    <t>Bdecl</t>
-  </si>
-  <si>
-    <t>Bepoch</t>
   </si>
   <si>
     <t>cal1Dname</t>
@@ -1257,9 +1252,9 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A41" activeCellId="1" sqref="C11 A41"/>
+      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1332,16 +1327,18 @@
         <v>11</v>
       </c>
       <c r="B5" s="0"/>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7"/>
       <c r="G6" s="0"/>
@@ -1349,10 +1346,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7"/>
       <c r="G7" s="0"/>
@@ -1360,10 +1357,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7"/>
       <c r="G8" s="0"/>
@@ -1371,10 +1368,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="13"/>
       <c r="G9" s="0"/>
@@ -1382,29 +1379,29 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="13"/>
       <c r="G10" s="0"/>
       <c r="H10" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="5"/>
       <c r="G11" s="0"/>
       <c r="H11" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>10</v>
@@ -1415,18 +1412,18 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="5"/>
       <c r="G13" s="0"/>
       <c r="H13" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
@@ -1437,7 +1434,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="7"/>
@@ -1446,40 +1443,40 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="7"/>
       <c r="G16" s="0"/>
       <c r="H16" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="7"/>
       <c r="G17" s="0"/>
       <c r="H17" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="7"/>
       <c r="G18" s="0"/>
       <c r="H18" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="7"/>
@@ -1497,7 +1494,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="19" t="n">
         <v>200</v>
@@ -1508,7 +1505,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="19" t="n">
         <v>1200</v>
@@ -1525,18 +1522,18 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="7"/>
       <c r="G24" s="0"/>
       <c r="H24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
@@ -1547,7 +1544,7 @@
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
@@ -1558,7 +1555,7 @@
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
@@ -1569,7 +1566,7 @@
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
@@ -1580,7 +1577,7 @@
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
@@ -1591,7 +1588,7 @@
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
@@ -1609,7 +1606,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="7"/>
@@ -1620,7 +1617,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1636,7 +1633,7 @@
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="26" t="n">
         <v>0</v>
@@ -1647,7 +1644,7 @@
     </row>
     <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" s="22" t="n">
         <v>1</v>
@@ -1665,12 +1662,12 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
       <c r="G38" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H38" s="0"/>
     </row>
@@ -1682,7 +1679,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -1691,7 +1688,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -1707,7 +1704,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="13"/>
@@ -1718,7 +1715,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -1732,7 +1729,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -1744,7 +1741,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
@@ -1758,7 +1755,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
@@ -1772,7 +1769,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
@@ -1786,7 +1783,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
@@ -1808,7 +1805,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" s="0"/>
       <c r="C51" s="0"/>
@@ -1826,18 +1823,18 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="7"/>
       <c r="E53" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" s="0"/>
       <c r="C54" s="0"/>
@@ -1849,7 +1846,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55" s="0"/>
       <c r="C55" s="0"/>
@@ -1861,7 +1858,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
@@ -1878,7 +1875,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
@@ -1886,7 +1883,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
@@ -1894,7 +1891,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
@@ -1902,7 +1899,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
@@ -1910,7 +1907,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B62" s="0"/>
       <c r="C62" s="0"/>
@@ -1924,7 +1921,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B64" s="0"/>
       <c r="C64" s="0"/>
@@ -1937,10 +1934,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C66" s="5"/>
     </row>
@@ -1968,14 +1965,14 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="44" width="21.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="63.6326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="79.7551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="61.4132653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="62.2397959183674"/>
     <col collapsed="false" hidden="false" max="251" min="4" style="44" width="10.4132653061225"/>
     <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.4132653061225"/>
   </cols>
@@ -2239,7 +2236,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2498,7 +2495,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="46" t="n">
         <v>0</v>
@@ -2757,7 +2754,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" s="46" t="n">
         <v>0</v>
@@ -3016,7 +3013,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3275,7 +3272,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" s="46" t="n">
         <v>90</v>
@@ -3534,7 +3531,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" s="46" t="n">
         <v>9</v>
@@ -3793,7 +3790,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -4052,7 +4049,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" s="49"/>
       <c r="C9" s="49"/>
@@ -4307,7 +4304,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
@@ -4562,13 +4559,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
@@ -4821,10 +4818,14 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="0"/>
+        <v>88</v>
+      </c>
+      <c r="B12" s="50" t="n">
+        <v>-0.188679245283019</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -5076,13 +5077,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
@@ -5335,7 +5336,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B14" s="52" t="n">
         <v>-1</v>
@@ -5594,7 +5595,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="53" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="54"/>
@@ -5849,7 +5850,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="54"/>
@@ -6104,7 +6105,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="55" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B17" s="56"/>
       <c r="C17" s="57"/>
@@ -6359,13 +6360,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
@@ -6871,7 +6872,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B20" s="50"/>
       <c r="C20" s="58"/>
@@ -7126,7 +7127,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="58"/>
@@ -7381,7 +7382,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7636,7 +7637,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7891,7 +7892,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">B9*0.9</f>
@@ -8405,7 +8406,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>15</v>
@@ -8664,7 +8665,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
@@ -8928,7 +8929,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>512</v>
@@ -8939,7 +8940,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>512</v>
@@ -8950,7 +8951,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -8961,7 +8962,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -8972,7 +8973,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -8984,7 +8985,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B35" s="59" t="n">
         <v>65.1186367</v>
@@ -8995,7 +8996,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B36" s="59" t="n">
         <v>-147.432975</v>
@@ -9011,7 +9012,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77.51</v>
@@ -9022,7 +9023,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>19.92</v>
@@ -9033,24 +9034,24 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9060,7 +9061,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="44" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B43" s="60" t="n">
         <f aca="false">(0.0016)^2</f>
@@ -9073,7 +9074,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="44" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B44" s="44" t="n">
         <v>1</v>
@@ -9084,7 +9085,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="44" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B45" s="44" t="n">
         <v>1</v>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -1965,7 +1965,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6874,8 +6874,12 @@
       <c r="A20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="58"/>
+      <c r="B20" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="58" t="n">
+        <v>1000</v>
+      </c>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -7129,8 +7133,12 @@
       <c r="A21" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="58"/>
+      <c r="B21" s="50" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C21" s="58" t="n">
+        <v>1700</v>
+      </c>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -7384,7 +7392,9 @@
       <c r="A22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="0"/>
+      <c r="B22" s="4" t="n">
+        <v>0.1</v>
+      </c>
       <c r="C22" s="0"/>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -768,7 +768,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -791,6 +791,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3333"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -926,7 +932,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1163,6 +1169,14 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1965,7 +1979,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6874,10 +6888,10 @@
       <c r="A20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="50" t="n">
+      <c r="B20" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="58" t="n">
+      <c r="C20" s="60" t="n">
         <v>1000</v>
       </c>
       <c r="D20" s="0"/>
@@ -7133,10 +7147,10 @@
       <c r="A21" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="50" t="n">
+      <c r="B21" s="59" t="n">
         <v>12000</v>
       </c>
-      <c r="C21" s="58" t="n">
+      <c r="C21" s="60" t="n">
         <v>1700</v>
       </c>
       <c r="D21" s="0"/>
@@ -8997,10 +9011,10 @@
       <c r="A35" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="59" t="n">
+      <c r="B35" s="61" t="n">
         <v>65.1186367</v>
       </c>
-      <c r="C35" s="59" t="n">
+      <c r="C35" s="61" t="n">
         <v>65.12657</v>
       </c>
     </row>
@@ -9008,10 +9022,10 @@
       <c r="A36" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="59" t="n">
+      <c r="B36" s="61" t="n">
         <v>-147.432975</v>
       </c>
-      <c r="C36" s="59" t="n">
+      <c r="C36" s="61" t="n">
         <v>-147.496908333</v>
       </c>
     </row>
@@ -9073,11 +9087,11 @@
       <c r="A43" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="60" t="n">
+      <c r="B43" s="62" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C43" s="60" t="n">
+      <c r="C43" s="62" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -261,7 +261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
   <si>
     <t>Sim</t>
   </si>
@@ -425,7 +425,13 @@
     <t>reqStartUT</t>
   </si>
   <si>
+    <t>2013-04-14T08:54:22.100Z</t>
+  </si>
+  <si>
     <t>reqStopUT</t>
+  </si>
+  <si>
+    <t>2013-04-14T08:54:22.400Z</t>
   </si>
   <si>
     <t>UseTCz</t>
@@ -932,7 +938,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1049,7 +1055,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1082,6 +1092,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1162,6 +1176,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1265,10 +1283,10 @@
   </sheetPr>
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1697,28 +1715,32 @@
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
-      <c r="G40" s="29"/>
+      <c r="G40" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="H40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
-      <c r="G41" s="30"/>
+      <c r="G41" s="30" t="s">
+        <v>56</v>
+      </c>
       <c r="H41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
-      <c r="G42" s="30"/>
+      <c r="G42" s="31"/>
       <c r="H42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="13"/>
@@ -1728,83 +1750,83 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="31" t="s">
-        <v>56</v>
+      <c r="A44" s="32" t="s">
+        <v>58</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
-      <c r="D44" s="32" t="n">
+      <c r="D44" s="33" t="n">
         <v>0.05</v>
       </c>
-      <c r="E44" s="33"/>
+      <c r="E44" s="34"/>
       <c r="F44" s="5"/>
       <c r="G44" s="0"/>
       <c r="H44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="31" t="s">
-        <v>57</v>
+      <c r="A45" s="32" t="s">
+        <v>59</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="36"/>
       <c r="F45" s="5"/>
       <c r="G45" s="0"/>
       <c r="H45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="31" t="s">
-        <v>58</v>
+      <c r="A46" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
-      <c r="D46" s="34" t="n">
+      <c r="D46" s="35" t="n">
         <v>-3.8</v>
       </c>
-      <c r="E46" s="35"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="5"/>
       <c r="G46" s="0"/>
       <c r="H46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="31" t="s">
-        <v>59</v>
+      <c r="A47" s="32" t="s">
+        <v>61</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
-      <c r="D47" s="34" t="n">
+      <c r="D47" s="35" t="n">
         <v>7.1</v>
       </c>
-      <c r="E47" s="35"/>
+      <c r="E47" s="36"/>
       <c r="F47" s="13"/>
       <c r="G47" s="0"/>
       <c r="H47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="31" t="s">
-        <v>60</v>
+      <c r="A48" s="32" t="s">
+        <v>62</v>
       </c>
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
-      <c r="D48" s="34" t="n">
+      <c r="D48" s="35" t="n">
         <v>89</v>
       </c>
-      <c r="E48" s="35"/>
+      <c r="E48" s="36"/>
       <c r="F48" s="13"/>
       <c r="G48" s="0"/>
       <c r="H48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="31" t="s">
-        <v>61</v>
+      <c r="A49" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
-      <c r="D49" s="36" t="n">
+      <c r="D49" s="37" t="n">
         <v>1000</v>
       </c>
-      <c r="E49" s="37"/>
+      <c r="E49" s="38"/>
       <c r="F49" s="13"/>
       <c r="G49" s="0"/>
       <c r="H49" s="0"/>
@@ -1819,7 +1841,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B51" s="0"/>
       <c r="C51" s="0"/>
@@ -1837,30 +1859,30 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="7"/>
       <c r="E53" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B54" s="0"/>
       <c r="C54" s="0"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5" t="n">
-        <v>20</v>
+      <c r="E54" s="39" t="n">
+        <v>10</v>
       </c>
       <c r="F54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B55" s="0"/>
       <c r="C55" s="0"/>
@@ -1872,7 +1894,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
@@ -1883,45 +1905,45 @@
       <c r="F56" s="13"/>
     </row>
     <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="38"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
-      <c r="F58" s="40"/>
+      <c r="F58" s="42"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
-      <c r="F59" s="41"/>
+      <c r="F59" s="43"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
-      <c r="F60" s="42"/>
+      <c r="F60" s="44"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
-      <c r="F61" s="41"/>
+      <c r="F61" s="43"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B62" s="0"/>
       <c r="C62" s="0"/>
@@ -1935,11 +1957,11 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B64" s="0"/>
       <c r="C64" s="0"/>
-      <c r="E64" s="43"/>
+      <c r="E64" s="45"/>
       <c r="F64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1947,11 +1969,11 @@
       <c r="C65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="31" t="s">
-        <v>74</v>
+      <c r="A66" s="32" t="s">
+        <v>76</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C66" s="5"/>
     </row>
@@ -1976,27 +1998,27 @@
   </sheetPr>
   <dimension ref="A1:IQ45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="21.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="61.4132653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="62.2397959183674"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="44" width="10.4132653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="21.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="60.9183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="46" width="48.2448979591837"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="46" width="10.4132653061225"/>
     <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.4132653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="45" t="n">
+      <c r="B1" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="n">
+      <c r="C1" s="47" t="n">
         <v>1</v>
       </c>
       <c r="D1" s="0"/>
@@ -2250,7 +2272,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2508,13 +2530,13 @@
       <c r="IQ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="46" t="n">
+      <c r="A3" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="46" t="n">
+      <c r="C3" s="48" t="n">
         <v>3.1436</v>
       </c>
       <c r="D3" s="0"/>
@@ -2767,13 +2789,13 @@
       <c r="IQ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="46" t="n">
+      <c r="A4" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="46" t="n">
+      <c r="C4" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0"/>
@@ -3026,8 +3048,8 @@
       <c r="IQ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
-        <v>79</v>
+      <c r="A5" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3285,13 +3307,13 @@
       <c r="IQ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="46" t="n">
+      <c r="A6" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="48" t="n">
         <v>90</v>
       </c>
-      <c r="C6" s="46" t="n">
+      <c r="C6" s="48" t="n">
         <v>88.0172525718237</v>
       </c>
       <c r="D6" s="0"/>
@@ -3544,13 +3566,13 @@
       <c r="IQ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="46" t="n">
+      <c r="A7" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="48" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="n">
+      <c r="C7" s="48" t="n">
         <v>9</v>
       </c>
       <c r="D7" s="0"/>
@@ -3803,8 +3825,8 @@
       <c r="IQ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
-        <v>82</v>
+      <c r="A8" s="32" t="s">
+        <v>84</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -4063,10 +4085,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
+        <v>85</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -4318,10 +4340,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
+        <v>86</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -4572,14 +4594,14 @@
       <c r="IQ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38" t="s">
-        <v>85</v>
+      <c r="A11" s="40" t="s">
+        <v>87</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
@@ -4832,9 +4854,9 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="50" t="n">
+        <v>90</v>
+      </c>
+      <c r="B12" s="52" t="n">
         <v>-0.188679245283019</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -5091,7 +5113,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>53</v>
@@ -5349,13 +5371,13 @@
       <c r="IQ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="52" t="n">
+      <c r="A14" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="54" t="n">
         <v>-1</v>
       </c>
-      <c r="C14" s="52" t="n">
+      <c r="C14" s="54" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="0"/>
@@ -5608,11 +5630,11 @@
       <c r="IQ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="53" t="s">
-        <v>91</v>
+      <c r="A15" s="55" t="s">
+        <v>93</v>
       </c>
       <c r="B15" s="0"/>
-      <c r="C15" s="54"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -5863,11 +5885,11 @@
       <c r="IQ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="53" t="s">
-        <v>92</v>
+      <c r="A16" s="55" t="s">
+        <v>94</v>
       </c>
       <c r="B16" s="0"/>
-      <c r="C16" s="54"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -6118,11 +6140,11 @@
       <c r="IQ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
+      <c r="A17" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -6374,13 +6396,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="0" t="s">
         <v>96</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
@@ -6634,7 +6656,7 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
-      <c r="C19" s="58"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -6886,12 +6908,12 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="59" t="n">
+        <v>99</v>
+      </c>
+      <c r="B20" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="60" t="n">
+      <c r="C20" s="63" t="n">
         <v>1000</v>
       </c>
       <c r="D20" s="0"/>
@@ -7145,13 +7167,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="59" t="n">
-        <v>12000</v>
-      </c>
-      <c r="C21" s="60" t="n">
-        <v>1700</v>
+        <v>100</v>
+      </c>
+      <c r="B21" s="62" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C21" s="63" t="n">
+        <v>2500</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
@@ -7404,12 +7426,14 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="C22" s="0"/>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
@@ -7661,7 +7685,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7916,16 +7940,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <f aca="false">B9*0.9</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <f aca="false">C9*0.9</f>
-        <v>0</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
       <c r="D24" s="0"/>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
@@ -8430,7 +8448,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>15</v>
@@ -8689,7 +8707,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
@@ -8953,7 +8971,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>512</v>
@@ -8964,7 +8982,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>512</v>
@@ -8975,7 +8993,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -8986,7 +9004,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -8997,10 +9015,14 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
+        <v>110</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
@@ -9009,23 +9031,23 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="61" t="n">
+        <v>111</v>
+      </c>
+      <c r="B35" s="64" t="n">
         <v>65.1186367</v>
       </c>
-      <c r="C35" s="61" t="n">
+      <c r="C35" s="64" t="n">
         <v>65.12657</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="61" t="n">
+        <v>112</v>
+      </c>
+      <c r="B36" s="64" t="n">
         <v>-147.432975</v>
       </c>
-      <c r="C36" s="61" t="n">
+      <c r="C36" s="64" t="n">
         <v>-147.496908333</v>
       </c>
     </row>
@@ -9036,7 +9058,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77.51</v>
@@ -9047,7 +9069,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>19.92</v>
@@ -9058,24 +9080,24 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9084,37 +9106,37 @@
       <c r="C42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="62" t="n">
+      <c r="A43" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="65" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C43" s="62" t="n">
+      <c r="C43" s="65" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="44" t="n">
+      <c r="A44" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="44" t="n">
+      <c r="C44" s="46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="44" t="n">
+      <c r="A45" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="44" t="n">
+      <c r="C45" s="46" t="n">
         <v>1</v>
       </c>
     </row>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -938,7 +938,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1195,6 +1195,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1284,7 +1288,7 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
@@ -1876,7 +1880,7 @@
       <c r="C54" s="0"/>
       <c r="D54" s="5"/>
       <c r="E54" s="39" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F54" s="13"/>
     </row>
@@ -2001,7 +2005,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4342,8 +4346,8 @@
       <c r="A10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -7942,8 +7946,12 @@
       <c r="A24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
+      <c r="B24" s="64" t="n">
+        <v>2150</v>
+      </c>
+      <c r="C24" s="64" t="n">
+        <v>2150</v>
+      </c>
       <c r="D24" s="0"/>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
@@ -9033,10 +9041,10 @@
       <c r="A35" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="64" t="n">
+      <c r="B35" s="65" t="n">
         <v>65.1186367</v>
       </c>
-      <c r="C35" s="64" t="n">
+      <c r="C35" s="65" t="n">
         <v>65.12657</v>
       </c>
     </row>
@@ -9044,10 +9052,10 @@
       <c r="A36" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="64" t="n">
+      <c r="B36" s="65" t="n">
         <v>-147.432975</v>
       </c>
-      <c r="C36" s="64" t="n">
+      <c r="C36" s="65" t="n">
         <v>-147.496908333</v>
       </c>
     </row>
@@ -9109,11 +9117,11 @@
       <c r="A43" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="B43" s="65" t="n">
+      <c r="B43" s="66" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C43" s="65" t="n">
+      <c r="C43" s="66" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -305,19 +305,19 @@
     <t>BG3transFN</t>
   </si>
   <si>
-    <t>gridaurora/precompute/BG3transmittance.h5</t>
+    <t>precompute/BG3transmittance.h5</t>
   </si>
   <si>
     <t>windowFN</t>
   </si>
   <si>
-    <t>gridaurora/precompute/ixonWindowT.h5</t>
+    <t>precompute/ixonWindowT.h5</t>
   </si>
   <si>
     <t>emccdQEfn</t>
   </si>
   <si>
-    <t>gridaurora/precompute/emccdQE.h5</t>
+    <t>precompute/emccdQE.h5</t>
   </si>
   <si>
     <t>TranscarDataDir</t>
@@ -362,7 +362,7 @@
     <t>reactionParam</t>
   </si>
   <si>
-    <t>gridaurora/precompute/vjeinfc.h5</t>
+    <t>precompute/vjeinfc.h5</t>
   </si>
   <si>
     <t>altitudePreload</t>
@@ -1288,9 +1288,9 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
+      <selection pane="bottomLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -100,10 +99,8 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -116,7 +113,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -130,10 +126,8 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -146,10 +140,8 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -165,7 +157,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -202,7 +193,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -217,7 +207,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -234,7 +223,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -243,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0">
+    <comment ref="A38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -261,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
   <si>
     <t>Sim</t>
   </si>
@@ -299,7 +287,7 @@
     <t>ActualDataDir</t>
   </si>
   <si>
-    <t>~/data</t>
+    <t>~/HSTdata/DataField/2013-04-14</t>
   </si>
   <si>
     <t>BG3transFN</t>
@@ -579,21 +567,6 @@
   </si>
   <si>
     <t>savgolOrder</t>
-  </si>
-  <si>
-    <t>xPix</t>
-  </si>
-  <si>
-    <t>yPix</t>
-  </si>
-  <si>
-    <t>xBin</t>
-  </si>
-  <si>
-    <t>yBin</t>
-  </si>
-  <si>
-    <t>nHead16</t>
   </si>
   <si>
     <t>latWGS84</t>
@@ -1287,23 +1260,23 @@
   </sheetPr>
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.1071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.13775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.70408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.69897959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.5357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2000,21 +1973,21 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IQ45"/>
+  <dimension ref="A1:IQ39"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="21.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="60.9183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="46" width="48.2448979591837"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="46" width="10.4132653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.4132653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="60.2040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="46" width="47.6530612244898"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="46" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8981,170 +8954,110 @@
       <c r="A29" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="0" t="n">
-        <v>512</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>512</v>
+      <c r="B29" s="65" t="n">
+        <v>65.1186367</v>
+      </c>
+      <c r="C29" s="65" t="n">
+        <v>65.12657</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>512</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>512</v>
+      <c r="B30" s="65" t="n">
+        <v>-147.432975</v>
+      </c>
+      <c r="C30" s="65" t="n">
+        <v>-147.496908333</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="A31" s="0"/>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="B32" s="4" t="n">
+        <v>77.51</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>77.5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="4" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0"/>
-      <c r="B34" s="0"/>
-      <c r="C34" s="0"/>
+      <c r="B34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="65" t="n">
-        <v>65.1186367</v>
-      </c>
-      <c r="C35" s="65" t="n">
-        <v>65.12657</v>
+        <v>112</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="65" t="n">
-        <v>-147.432975</v>
-      </c>
-      <c r="C36" s="65" t="n">
-        <v>-147.496908333</v>
-      </c>
+      <c r="A36" s="0"/>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0"/>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" s="4" t="n">
-        <v>77.51</v>
-      </c>
-      <c r="C38" s="4" t="n">
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="4" t="n">
-        <v>19.92</v>
-      </c>
-      <c r="C39" s="4" t="n">
-        <v>19.9</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+      <c r="A37" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0"/>
-      <c r="B42" s="0"/>
-      <c r="C42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="66" t="n">
+      <c r="B37" s="66" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C43" s="66" t="n">
+      <c r="C37" s="66" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="46" t="n">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="46" t="n">
+      <c r="C38" s="46" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="46" t="n">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="46" t="n">
+      <c r="C39" s="46" t="n">
         <v>1</v>
       </c>
     </row>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -218,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="0">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0">
+    <comment ref="A32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>Sim</t>
   </si>
@@ -512,40 +512,16 @@
     <t>CCDBias</t>
   </si>
   <si>
-    <t>fullFileStartUTC</t>
-  </si>
-  <si>
-    <t>2013-04-14T06:59:55Z</t>
-  </si>
-  <si>
-    <t>2013-04-14T07:00:07Z</t>
-  </si>
-  <si>
     <t>timeShiftSec</t>
   </si>
   <si>
-    <t>frameRateHz</t>
-  </si>
-  <si>
-    <t>rotCCW</t>
-  </si>
-  <si>
-    <t>flipLR</t>
-  </si>
-  <si>
-    <t>flipUD</t>
-  </si>
-  <si>
-    <t>transpose</t>
-  </si>
-  <si>
     <t>fn</t>
   </si>
   <si>
-    <t>2013-04-14T07-00-CamSer7196_frames_363000-1-369200.DMCdata</t>
-  </si>
-  <si>
-    <t>2013-04-14T07-00-CamSer1387_frames_205111-1-208621.DMCdata</t>
+    <t>2013-04-14T8-54_cam0.h5</t>
+  </si>
+  <si>
+    <t>2013-04-14T8-54_cam1.h5</t>
   </si>
   <si>
     <t>plotMinVal</t>
@@ -616,7 +592,7 @@
     <numFmt numFmtId="167" formatCode="0"/>
     <numFmt numFmtId="168" formatCode="0.00E+000"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -718,14 +694,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
@@ -737,13 +705,6 @@
       <color rgb="FF000000"/>
       <name val="Sans"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -779,7 +740,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -878,13 +839,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -911,7 +865,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1100,11 +1054,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1122,34 +1076,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1261,22 +1187,21 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="E14" activeCellId="1" sqref="B:C E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,21 +1898,20 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IQ39"/>
+  <dimension ref="A1:IQ33"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="B:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="60.2040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="46" width="47.6530612244898"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="46" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="46" width="29.484693877551"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="46" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4571,14 +4495,14 @@
       <c r="IQ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>89</v>
+      <c r="B11" s="52" t="n">
+        <v>-0.188679245283019</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
@@ -4831,13 +4755,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="53" t="s">
         <v>90</v>
-      </c>
-      <c r="B12" s="52" t="n">
-        <v>-0.188679245283019</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -5089,15 +5013,9 @@
       <c r="IQ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>30</v>
-      </c>
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
@@ -5347,15 +5265,15 @@
       <c r="IP13" s="0"/>
       <c r="IQ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="54" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C14" s="54" t="n">
-        <v>2</v>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="56" t="n">
+        <v>1000</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
@@ -5607,11 +5525,15 @@
       <c r="IQ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="0"/>
-      <c r="C15" s="56"/>
+      <c r="A15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="55" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C15" s="56" t="n">
+        <v>2500</v>
+      </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -5862,11 +5784,15 @@
       <c r="IQ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="0"/>
-      <c r="C16" s="56"/>
+      <c r="A16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -6117,11 +6043,11 @@
       <c r="IQ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
+      <c r="A17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -6373,13 +6299,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="B18" s="57" t="n">
+        <v>2150</v>
+      </c>
+      <c r="C18" s="57" t="n">
+        <v>2150</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
@@ -6633,7 +6559,7 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
-      <c r="C19" s="61"/>
+      <c r="C19" s="0"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -6885,17 +6811,17 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="63" t="n">
-        <v>1000</v>
+        <v>96</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>15</v>
       </c>
       <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
@@ -7144,17 +7070,17 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="62" t="n">
-        <v>25000</v>
-      </c>
-      <c r="C21" s="63" t="n">
-        <v>2500</v>
+        <v>97</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
@@ -7402,1662 +7328,118 @@
       <c r="IQ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="0"/>
-      <c r="N22" s="0"/>
-      <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
-      <c r="Q22" s="0"/>
-      <c r="R22" s="0"/>
-      <c r="S22" s="0"/>
-      <c r="T22" s="0"/>
-      <c r="U22" s="0"/>
-      <c r="V22" s="0"/>
-      <c r="W22" s="0"/>
-      <c r="X22" s="0"/>
-      <c r="Y22" s="0"/>
-      <c r="Z22" s="0"/>
-      <c r="AA22" s="0"/>
-      <c r="AB22" s="0"/>
-      <c r="AC22" s="0"/>
-      <c r="AD22" s="0"/>
-      <c r="AE22" s="0"/>
-      <c r="AF22" s="0"/>
-      <c r="AG22" s="0"/>
-      <c r="AH22" s="0"/>
-      <c r="AI22" s="0"/>
-      <c r="AJ22" s="0"/>
-      <c r="AK22" s="0"/>
-      <c r="AL22" s="0"/>
-      <c r="AM22" s="0"/>
-      <c r="AN22" s="0"/>
-      <c r="AO22" s="0"/>
-      <c r="AP22" s="0"/>
-      <c r="AQ22" s="0"/>
-      <c r="AR22" s="0"/>
-      <c r="AS22" s="0"/>
-      <c r="AT22" s="0"/>
-      <c r="AU22" s="0"/>
-      <c r="AV22" s="0"/>
-      <c r="AW22" s="0"/>
-      <c r="AX22" s="0"/>
-      <c r="AY22" s="0"/>
-      <c r="AZ22" s="0"/>
-      <c r="BA22" s="0"/>
-      <c r="BB22" s="0"/>
-      <c r="BC22" s="0"/>
-      <c r="BD22" s="0"/>
-      <c r="BE22" s="0"/>
-      <c r="BF22" s="0"/>
-      <c r="BG22" s="0"/>
-      <c r="BH22" s="0"/>
-      <c r="BI22" s="0"/>
-      <c r="BJ22" s="0"/>
-      <c r="BK22" s="0"/>
-      <c r="BL22" s="0"/>
-      <c r="BM22" s="0"/>
-      <c r="BN22" s="0"/>
-      <c r="BO22" s="0"/>
-      <c r="BP22" s="0"/>
-      <c r="BQ22" s="0"/>
-      <c r="BR22" s="0"/>
-      <c r="BS22" s="0"/>
-      <c r="BT22" s="0"/>
-      <c r="BU22" s="0"/>
-      <c r="BV22" s="0"/>
-      <c r="BW22" s="0"/>
-      <c r="BX22" s="0"/>
-      <c r="BY22" s="0"/>
-      <c r="BZ22" s="0"/>
-      <c r="CA22" s="0"/>
-      <c r="CB22" s="0"/>
-      <c r="CC22" s="0"/>
-      <c r="CD22" s="0"/>
-      <c r="CE22" s="0"/>
-      <c r="CF22" s="0"/>
-      <c r="CG22" s="0"/>
-      <c r="CH22" s="0"/>
-      <c r="CI22" s="0"/>
-      <c r="CJ22" s="0"/>
-      <c r="CK22" s="0"/>
-      <c r="CL22" s="0"/>
-      <c r="CM22" s="0"/>
-      <c r="CN22" s="0"/>
-      <c r="CO22" s="0"/>
-      <c r="CP22" s="0"/>
-      <c r="CQ22" s="0"/>
-      <c r="CR22" s="0"/>
-      <c r="CS22" s="0"/>
-      <c r="CT22" s="0"/>
-      <c r="CU22" s="0"/>
-      <c r="CV22" s="0"/>
-      <c r="CW22" s="0"/>
-      <c r="CX22" s="0"/>
-      <c r="CY22" s="0"/>
-      <c r="CZ22" s="0"/>
-      <c r="DA22" s="0"/>
-      <c r="DB22" s="0"/>
-      <c r="DC22" s="0"/>
-      <c r="DD22" s="0"/>
-      <c r="DE22" s="0"/>
-      <c r="DF22" s="0"/>
-      <c r="DG22" s="0"/>
-      <c r="DH22" s="0"/>
-      <c r="DI22" s="0"/>
-      <c r="DJ22" s="0"/>
-      <c r="DK22" s="0"/>
-      <c r="DL22" s="0"/>
-      <c r="DM22" s="0"/>
-      <c r="DN22" s="0"/>
-      <c r="DO22" s="0"/>
-      <c r="DP22" s="0"/>
-      <c r="DQ22" s="0"/>
-      <c r="DR22" s="0"/>
-      <c r="DS22" s="0"/>
-      <c r="DT22" s="0"/>
-      <c r="DU22" s="0"/>
-      <c r="DV22" s="0"/>
-      <c r="DW22" s="0"/>
-      <c r="DX22" s="0"/>
-      <c r="DY22" s="0"/>
-      <c r="DZ22" s="0"/>
-      <c r="EA22" s="0"/>
-      <c r="EB22" s="0"/>
-      <c r="EC22" s="0"/>
-      <c r="ED22" s="0"/>
-      <c r="EE22" s="0"/>
-      <c r="EF22" s="0"/>
-      <c r="EG22" s="0"/>
-      <c r="EH22" s="0"/>
-      <c r="EI22" s="0"/>
-      <c r="EJ22" s="0"/>
-      <c r="EK22" s="0"/>
-      <c r="EL22" s="0"/>
-      <c r="EM22" s="0"/>
-      <c r="EN22" s="0"/>
-      <c r="EO22" s="0"/>
-      <c r="EP22" s="0"/>
-      <c r="EQ22" s="0"/>
-      <c r="ER22" s="0"/>
-      <c r="ES22" s="0"/>
-      <c r="ET22" s="0"/>
-      <c r="EU22" s="0"/>
-      <c r="EV22" s="0"/>
-      <c r="EW22" s="0"/>
-      <c r="EX22" s="0"/>
-      <c r="EY22" s="0"/>
-      <c r="EZ22" s="0"/>
-      <c r="FA22" s="0"/>
-      <c r="FB22" s="0"/>
-      <c r="FC22" s="0"/>
-      <c r="FD22" s="0"/>
-      <c r="FE22" s="0"/>
-      <c r="FF22" s="0"/>
-      <c r="FG22" s="0"/>
-      <c r="FH22" s="0"/>
-      <c r="FI22" s="0"/>
-      <c r="FJ22" s="0"/>
-      <c r="FK22" s="0"/>
-      <c r="FL22" s="0"/>
-      <c r="FM22" s="0"/>
-      <c r="FN22" s="0"/>
-      <c r="FO22" s="0"/>
-      <c r="FP22" s="0"/>
-      <c r="FQ22" s="0"/>
-      <c r="FR22" s="0"/>
-      <c r="FS22" s="0"/>
-      <c r="FT22" s="0"/>
-      <c r="FU22" s="0"/>
-      <c r="FV22" s="0"/>
-      <c r="FW22" s="0"/>
-      <c r="FX22" s="0"/>
-      <c r="FY22" s="0"/>
-      <c r="FZ22" s="0"/>
-      <c r="GA22" s="0"/>
-      <c r="GB22" s="0"/>
-      <c r="GC22" s="0"/>
-      <c r="GD22" s="0"/>
-      <c r="GE22" s="0"/>
-      <c r="GF22" s="0"/>
-      <c r="GG22" s="0"/>
-      <c r="GH22" s="0"/>
-      <c r="GI22" s="0"/>
-      <c r="GJ22" s="0"/>
-      <c r="GK22" s="0"/>
-      <c r="GL22" s="0"/>
-      <c r="GM22" s="0"/>
-      <c r="GN22" s="0"/>
-      <c r="GO22" s="0"/>
-      <c r="GP22" s="0"/>
-      <c r="GQ22" s="0"/>
-      <c r="GR22" s="0"/>
-      <c r="GS22" s="0"/>
-      <c r="GT22" s="0"/>
-      <c r="GU22" s="0"/>
-      <c r="GV22" s="0"/>
-      <c r="GW22" s="0"/>
-      <c r="GX22" s="0"/>
-      <c r="GY22" s="0"/>
-      <c r="GZ22" s="0"/>
-      <c r="HA22" s="0"/>
-      <c r="HB22" s="0"/>
-      <c r="HC22" s="0"/>
-      <c r="HD22" s="0"/>
-      <c r="HE22" s="0"/>
-      <c r="HF22" s="0"/>
-      <c r="HG22" s="0"/>
-      <c r="HH22" s="0"/>
-      <c r="HI22" s="0"/>
-      <c r="HJ22" s="0"/>
-      <c r="HK22" s="0"/>
-      <c r="HL22" s="0"/>
-      <c r="HM22" s="0"/>
-      <c r="HN22" s="0"/>
-      <c r="HO22" s="0"/>
-      <c r="HP22" s="0"/>
-      <c r="HQ22" s="0"/>
-      <c r="HR22" s="0"/>
-      <c r="HS22" s="0"/>
-      <c r="HT22" s="0"/>
-      <c r="HU22" s="0"/>
-      <c r="HV22" s="0"/>
-      <c r="HW22" s="0"/>
-      <c r="HX22" s="0"/>
-      <c r="HY22" s="0"/>
-      <c r="HZ22" s="0"/>
-      <c r="IA22" s="0"/>
-      <c r="IB22" s="0"/>
-      <c r="IC22" s="0"/>
-      <c r="ID22" s="0"/>
-      <c r="IE22" s="0"/>
-      <c r="IF22" s="0"/>
-      <c r="IG22" s="0"/>
-      <c r="IH22" s="0"/>
-      <c r="II22" s="0"/>
-      <c r="IJ22" s="0"/>
-      <c r="IK22" s="0"/>
-      <c r="IL22" s="0"/>
-      <c r="IM22" s="0"/>
-      <c r="IN22" s="0"/>
-      <c r="IO22" s="0"/>
-      <c r="IP22" s="0"/>
-      <c r="IQ22" s="0"/>
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
-      <c r="F23" s="0"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
-      <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-      <c r="M23" s="0"/>
-      <c r="N23" s="0"/>
-      <c r="O23" s="0"/>
-      <c r="P23" s="0"/>
-      <c r="Q23" s="0"/>
-      <c r="R23" s="0"/>
-      <c r="S23" s="0"/>
-      <c r="T23" s="0"/>
-      <c r="U23" s="0"/>
-      <c r="V23" s="0"/>
-      <c r="W23" s="0"/>
-      <c r="X23" s="0"/>
-      <c r="Y23" s="0"/>
-      <c r="Z23" s="0"/>
-      <c r="AA23" s="0"/>
-      <c r="AB23" s="0"/>
-      <c r="AC23" s="0"/>
-      <c r="AD23" s="0"/>
-      <c r="AE23" s="0"/>
-      <c r="AF23" s="0"/>
-      <c r="AG23" s="0"/>
-      <c r="AH23" s="0"/>
-      <c r="AI23" s="0"/>
-      <c r="AJ23" s="0"/>
-      <c r="AK23" s="0"/>
-      <c r="AL23" s="0"/>
-      <c r="AM23" s="0"/>
-      <c r="AN23" s="0"/>
-      <c r="AO23" s="0"/>
-      <c r="AP23" s="0"/>
-      <c r="AQ23" s="0"/>
-      <c r="AR23" s="0"/>
-      <c r="AS23" s="0"/>
-      <c r="AT23" s="0"/>
-      <c r="AU23" s="0"/>
-      <c r="AV23" s="0"/>
-      <c r="AW23" s="0"/>
-      <c r="AX23" s="0"/>
-      <c r="AY23" s="0"/>
-      <c r="AZ23" s="0"/>
-      <c r="BA23" s="0"/>
-      <c r="BB23" s="0"/>
-      <c r="BC23" s="0"/>
-      <c r="BD23" s="0"/>
-      <c r="BE23" s="0"/>
-      <c r="BF23" s="0"/>
-      <c r="BG23" s="0"/>
-      <c r="BH23" s="0"/>
-      <c r="BI23" s="0"/>
-      <c r="BJ23" s="0"/>
-      <c r="BK23" s="0"/>
-      <c r="BL23" s="0"/>
-      <c r="BM23" s="0"/>
-      <c r="BN23" s="0"/>
-      <c r="BO23" s="0"/>
-      <c r="BP23" s="0"/>
-      <c r="BQ23" s="0"/>
-      <c r="BR23" s="0"/>
-      <c r="BS23" s="0"/>
-      <c r="BT23" s="0"/>
-      <c r="BU23" s="0"/>
-      <c r="BV23" s="0"/>
-      <c r="BW23" s="0"/>
-      <c r="BX23" s="0"/>
-      <c r="BY23" s="0"/>
-      <c r="BZ23" s="0"/>
-      <c r="CA23" s="0"/>
-      <c r="CB23" s="0"/>
-      <c r="CC23" s="0"/>
-      <c r="CD23" s="0"/>
-      <c r="CE23" s="0"/>
-      <c r="CF23" s="0"/>
-      <c r="CG23" s="0"/>
-      <c r="CH23" s="0"/>
-      <c r="CI23" s="0"/>
-      <c r="CJ23" s="0"/>
-      <c r="CK23" s="0"/>
-      <c r="CL23" s="0"/>
-      <c r="CM23" s="0"/>
-      <c r="CN23" s="0"/>
-      <c r="CO23" s="0"/>
-      <c r="CP23" s="0"/>
-      <c r="CQ23" s="0"/>
-      <c r="CR23" s="0"/>
-      <c r="CS23" s="0"/>
-      <c r="CT23" s="0"/>
-      <c r="CU23" s="0"/>
-      <c r="CV23" s="0"/>
-      <c r="CW23" s="0"/>
-      <c r="CX23" s="0"/>
-      <c r="CY23" s="0"/>
-      <c r="CZ23" s="0"/>
-      <c r="DA23" s="0"/>
-      <c r="DB23" s="0"/>
-      <c r="DC23" s="0"/>
-      <c r="DD23" s="0"/>
-      <c r="DE23" s="0"/>
-      <c r="DF23" s="0"/>
-      <c r="DG23" s="0"/>
-      <c r="DH23" s="0"/>
-      <c r="DI23" s="0"/>
-      <c r="DJ23" s="0"/>
-      <c r="DK23" s="0"/>
-      <c r="DL23" s="0"/>
-      <c r="DM23" s="0"/>
-      <c r="DN23" s="0"/>
-      <c r="DO23" s="0"/>
-      <c r="DP23" s="0"/>
-      <c r="DQ23" s="0"/>
-      <c r="DR23" s="0"/>
-      <c r="DS23" s="0"/>
-      <c r="DT23" s="0"/>
-      <c r="DU23" s="0"/>
-      <c r="DV23" s="0"/>
-      <c r="DW23" s="0"/>
-      <c r="DX23" s="0"/>
-      <c r="DY23" s="0"/>
-      <c r="DZ23" s="0"/>
-      <c r="EA23" s="0"/>
-      <c r="EB23" s="0"/>
-      <c r="EC23" s="0"/>
-      <c r="ED23" s="0"/>
-      <c r="EE23" s="0"/>
-      <c r="EF23" s="0"/>
-      <c r="EG23" s="0"/>
-      <c r="EH23" s="0"/>
-      <c r="EI23" s="0"/>
-      <c r="EJ23" s="0"/>
-      <c r="EK23" s="0"/>
-      <c r="EL23" s="0"/>
-      <c r="EM23" s="0"/>
-      <c r="EN23" s="0"/>
-      <c r="EO23" s="0"/>
-      <c r="EP23" s="0"/>
-      <c r="EQ23" s="0"/>
-      <c r="ER23" s="0"/>
-      <c r="ES23" s="0"/>
-      <c r="ET23" s="0"/>
-      <c r="EU23" s="0"/>
-      <c r="EV23" s="0"/>
-      <c r="EW23" s="0"/>
-      <c r="EX23" s="0"/>
-      <c r="EY23" s="0"/>
-      <c r="EZ23" s="0"/>
-      <c r="FA23" s="0"/>
-      <c r="FB23" s="0"/>
-      <c r="FC23" s="0"/>
-      <c r="FD23" s="0"/>
-      <c r="FE23" s="0"/>
-      <c r="FF23" s="0"/>
-      <c r="FG23" s="0"/>
-      <c r="FH23" s="0"/>
-      <c r="FI23" s="0"/>
-      <c r="FJ23" s="0"/>
-      <c r="FK23" s="0"/>
-      <c r="FL23" s="0"/>
-      <c r="FM23" s="0"/>
-      <c r="FN23" s="0"/>
-      <c r="FO23" s="0"/>
-      <c r="FP23" s="0"/>
-      <c r="FQ23" s="0"/>
-      <c r="FR23" s="0"/>
-      <c r="FS23" s="0"/>
-      <c r="FT23" s="0"/>
-      <c r="FU23" s="0"/>
-      <c r="FV23" s="0"/>
-      <c r="FW23" s="0"/>
-      <c r="FX23" s="0"/>
-      <c r="FY23" s="0"/>
-      <c r="FZ23" s="0"/>
-      <c r="GA23" s="0"/>
-      <c r="GB23" s="0"/>
-      <c r="GC23" s="0"/>
-      <c r="GD23" s="0"/>
-      <c r="GE23" s="0"/>
-      <c r="GF23" s="0"/>
-      <c r="GG23" s="0"/>
-      <c r="GH23" s="0"/>
-      <c r="GI23" s="0"/>
-      <c r="GJ23" s="0"/>
-      <c r="GK23" s="0"/>
-      <c r="GL23" s="0"/>
-      <c r="GM23" s="0"/>
-      <c r="GN23" s="0"/>
-      <c r="GO23" s="0"/>
-      <c r="GP23" s="0"/>
-      <c r="GQ23" s="0"/>
-      <c r="GR23" s="0"/>
-      <c r="GS23" s="0"/>
-      <c r="GT23" s="0"/>
-      <c r="GU23" s="0"/>
-      <c r="GV23" s="0"/>
-      <c r="GW23" s="0"/>
-      <c r="GX23" s="0"/>
-      <c r="GY23" s="0"/>
-      <c r="GZ23" s="0"/>
-      <c r="HA23" s="0"/>
-      <c r="HB23" s="0"/>
-      <c r="HC23" s="0"/>
-      <c r="HD23" s="0"/>
-      <c r="HE23" s="0"/>
-      <c r="HF23" s="0"/>
-      <c r="HG23" s="0"/>
-      <c r="HH23" s="0"/>
-      <c r="HI23" s="0"/>
-      <c r="HJ23" s="0"/>
-      <c r="HK23" s="0"/>
-      <c r="HL23" s="0"/>
-      <c r="HM23" s="0"/>
-      <c r="HN23" s="0"/>
-      <c r="HO23" s="0"/>
-      <c r="HP23" s="0"/>
-      <c r="HQ23" s="0"/>
-      <c r="HR23" s="0"/>
-      <c r="HS23" s="0"/>
-      <c r="HT23" s="0"/>
-      <c r="HU23" s="0"/>
-      <c r="HV23" s="0"/>
-      <c r="HW23" s="0"/>
-      <c r="HX23" s="0"/>
-      <c r="HY23" s="0"/>
-      <c r="HZ23" s="0"/>
-      <c r="IA23" s="0"/>
-      <c r="IB23" s="0"/>
-      <c r="IC23" s="0"/>
-      <c r="ID23" s="0"/>
-      <c r="IE23" s="0"/>
-      <c r="IF23" s="0"/>
-      <c r="IG23" s="0"/>
-      <c r="IH23" s="0"/>
-      <c r="II23" s="0"/>
-      <c r="IJ23" s="0"/>
-      <c r="IK23" s="0"/>
-      <c r="IL23" s="0"/>
-      <c r="IM23" s="0"/>
-      <c r="IN23" s="0"/>
-      <c r="IO23" s="0"/>
-      <c r="IP23" s="0"/>
-      <c r="IQ23" s="0"/>
+        <v>98</v>
+      </c>
+      <c r="B23" s="58" t="n">
+        <v>65.1186367</v>
+      </c>
+      <c r="C23" s="58" t="n">
+        <v>65.12657</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="64" t="n">
-        <v>2150</v>
-      </c>
-      <c r="C24" s="64" t="n">
-        <v>2150</v>
-      </c>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="0"/>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
-      <c r="K24" s="0"/>
-      <c r="L24" s="0"/>
-      <c r="M24" s="0"/>
-      <c r="N24" s="0"/>
-      <c r="O24" s="0"/>
-      <c r="P24" s="0"/>
-      <c r="Q24" s="0"/>
-      <c r="R24" s="0"/>
-      <c r="S24" s="0"/>
-      <c r="T24" s="0"/>
-      <c r="U24" s="0"/>
-      <c r="V24" s="0"/>
-      <c r="W24" s="0"/>
-      <c r="X24" s="0"/>
-      <c r="Y24" s="0"/>
-      <c r="Z24" s="0"/>
-      <c r="AA24" s="0"/>
-      <c r="AB24" s="0"/>
-      <c r="AC24" s="0"/>
-      <c r="AD24" s="0"/>
-      <c r="AE24" s="0"/>
-      <c r="AF24" s="0"/>
-      <c r="AG24" s="0"/>
-      <c r="AH24" s="0"/>
-      <c r="AI24" s="0"/>
-      <c r="AJ24" s="0"/>
-      <c r="AK24" s="0"/>
-      <c r="AL24" s="0"/>
-      <c r="AM24" s="0"/>
-      <c r="AN24" s="0"/>
-      <c r="AO24" s="0"/>
-      <c r="AP24" s="0"/>
-      <c r="AQ24" s="0"/>
-      <c r="AR24" s="0"/>
-      <c r="AS24" s="0"/>
-      <c r="AT24" s="0"/>
-      <c r="AU24" s="0"/>
-      <c r="AV24" s="0"/>
-      <c r="AW24" s="0"/>
-      <c r="AX24" s="0"/>
-      <c r="AY24" s="0"/>
-      <c r="AZ24" s="0"/>
-      <c r="BA24" s="0"/>
-      <c r="BB24" s="0"/>
-      <c r="BC24" s="0"/>
-      <c r="BD24" s="0"/>
-      <c r="BE24" s="0"/>
-      <c r="BF24" s="0"/>
-      <c r="BG24" s="0"/>
-      <c r="BH24" s="0"/>
-      <c r="BI24" s="0"/>
-      <c r="BJ24" s="0"/>
-      <c r="BK24" s="0"/>
-      <c r="BL24" s="0"/>
-      <c r="BM24" s="0"/>
-      <c r="BN24" s="0"/>
-      <c r="BO24" s="0"/>
-      <c r="BP24" s="0"/>
-      <c r="BQ24" s="0"/>
-      <c r="BR24" s="0"/>
-      <c r="BS24" s="0"/>
-      <c r="BT24" s="0"/>
-      <c r="BU24" s="0"/>
-      <c r="BV24" s="0"/>
-      <c r="BW24" s="0"/>
-      <c r="BX24" s="0"/>
-      <c r="BY24" s="0"/>
-      <c r="BZ24" s="0"/>
-      <c r="CA24" s="0"/>
-      <c r="CB24" s="0"/>
-      <c r="CC24" s="0"/>
-      <c r="CD24" s="0"/>
-      <c r="CE24" s="0"/>
-      <c r="CF24" s="0"/>
-      <c r="CG24" s="0"/>
-      <c r="CH24" s="0"/>
-      <c r="CI24" s="0"/>
-      <c r="CJ24" s="0"/>
-      <c r="CK24" s="0"/>
-      <c r="CL24" s="0"/>
-      <c r="CM24" s="0"/>
-      <c r="CN24" s="0"/>
-      <c r="CO24" s="0"/>
-      <c r="CP24" s="0"/>
-      <c r="CQ24" s="0"/>
-      <c r="CR24" s="0"/>
-      <c r="CS24" s="0"/>
-      <c r="CT24" s="0"/>
-      <c r="CU24" s="0"/>
-      <c r="CV24" s="0"/>
-      <c r="CW24" s="0"/>
-      <c r="CX24" s="0"/>
-      <c r="CY24" s="0"/>
-      <c r="CZ24" s="0"/>
-      <c r="DA24" s="0"/>
-      <c r="DB24" s="0"/>
-      <c r="DC24" s="0"/>
-      <c r="DD24" s="0"/>
-      <c r="DE24" s="0"/>
-      <c r="DF24" s="0"/>
-      <c r="DG24" s="0"/>
-      <c r="DH24" s="0"/>
-      <c r="DI24" s="0"/>
-      <c r="DJ24" s="0"/>
-      <c r="DK24" s="0"/>
-      <c r="DL24" s="0"/>
-      <c r="DM24" s="0"/>
-      <c r="DN24" s="0"/>
-      <c r="DO24" s="0"/>
-      <c r="DP24" s="0"/>
-      <c r="DQ24" s="0"/>
-      <c r="DR24" s="0"/>
-      <c r="DS24" s="0"/>
-      <c r="DT24" s="0"/>
-      <c r="DU24" s="0"/>
-      <c r="DV24" s="0"/>
-      <c r="DW24" s="0"/>
-      <c r="DX24" s="0"/>
-      <c r="DY24" s="0"/>
-      <c r="DZ24" s="0"/>
-      <c r="EA24" s="0"/>
-      <c r="EB24" s="0"/>
-      <c r="EC24" s="0"/>
-      <c r="ED24" s="0"/>
-      <c r="EE24" s="0"/>
-      <c r="EF24" s="0"/>
-      <c r="EG24" s="0"/>
-      <c r="EH24" s="0"/>
-      <c r="EI24" s="0"/>
-      <c r="EJ24" s="0"/>
-      <c r="EK24" s="0"/>
-      <c r="EL24" s="0"/>
-      <c r="EM24" s="0"/>
-      <c r="EN24" s="0"/>
-      <c r="EO24" s="0"/>
-      <c r="EP24" s="0"/>
-      <c r="EQ24" s="0"/>
-      <c r="ER24" s="0"/>
-      <c r="ES24" s="0"/>
-      <c r="ET24" s="0"/>
-      <c r="EU24" s="0"/>
-      <c r="EV24" s="0"/>
-      <c r="EW24" s="0"/>
-      <c r="EX24" s="0"/>
-      <c r="EY24" s="0"/>
-      <c r="EZ24" s="0"/>
-      <c r="FA24" s="0"/>
-      <c r="FB24" s="0"/>
-      <c r="FC24" s="0"/>
-      <c r="FD24" s="0"/>
-      <c r="FE24" s="0"/>
-      <c r="FF24" s="0"/>
-      <c r="FG24" s="0"/>
-      <c r="FH24" s="0"/>
-      <c r="FI24" s="0"/>
-      <c r="FJ24" s="0"/>
-      <c r="FK24" s="0"/>
-      <c r="FL24" s="0"/>
-      <c r="FM24" s="0"/>
-      <c r="FN24" s="0"/>
-      <c r="FO24" s="0"/>
-      <c r="FP24" s="0"/>
-      <c r="FQ24" s="0"/>
-      <c r="FR24" s="0"/>
-      <c r="FS24" s="0"/>
-      <c r="FT24" s="0"/>
-      <c r="FU24" s="0"/>
-      <c r="FV24" s="0"/>
-      <c r="FW24" s="0"/>
-      <c r="FX24" s="0"/>
-      <c r="FY24" s="0"/>
-      <c r="FZ24" s="0"/>
-      <c r="GA24" s="0"/>
-      <c r="GB24" s="0"/>
-      <c r="GC24" s="0"/>
-      <c r="GD24" s="0"/>
-      <c r="GE24" s="0"/>
-      <c r="GF24" s="0"/>
-      <c r="GG24" s="0"/>
-      <c r="GH24" s="0"/>
-      <c r="GI24" s="0"/>
-      <c r="GJ24" s="0"/>
-      <c r="GK24" s="0"/>
-      <c r="GL24" s="0"/>
-      <c r="GM24" s="0"/>
-      <c r="GN24" s="0"/>
-      <c r="GO24" s="0"/>
-      <c r="GP24" s="0"/>
-      <c r="GQ24" s="0"/>
-      <c r="GR24" s="0"/>
-      <c r="GS24" s="0"/>
-      <c r="GT24" s="0"/>
-      <c r="GU24" s="0"/>
-      <c r="GV24" s="0"/>
-      <c r="GW24" s="0"/>
-      <c r="GX24" s="0"/>
-      <c r="GY24" s="0"/>
-      <c r="GZ24" s="0"/>
-      <c r="HA24" s="0"/>
-      <c r="HB24" s="0"/>
-      <c r="HC24" s="0"/>
-      <c r="HD24" s="0"/>
-      <c r="HE24" s="0"/>
-      <c r="HF24" s="0"/>
-      <c r="HG24" s="0"/>
-      <c r="HH24" s="0"/>
-      <c r="HI24" s="0"/>
-      <c r="HJ24" s="0"/>
-      <c r="HK24" s="0"/>
-      <c r="HL24" s="0"/>
-      <c r="HM24" s="0"/>
-      <c r="HN24" s="0"/>
-      <c r="HO24" s="0"/>
-      <c r="HP24" s="0"/>
-      <c r="HQ24" s="0"/>
-      <c r="HR24" s="0"/>
-      <c r="HS24" s="0"/>
-      <c r="HT24" s="0"/>
-      <c r="HU24" s="0"/>
-      <c r="HV24" s="0"/>
-      <c r="HW24" s="0"/>
-      <c r="HX24" s="0"/>
-      <c r="HY24" s="0"/>
-      <c r="HZ24" s="0"/>
-      <c r="IA24" s="0"/>
-      <c r="IB24" s="0"/>
-      <c r="IC24" s="0"/>
-      <c r="ID24" s="0"/>
-      <c r="IE24" s="0"/>
-      <c r="IF24" s="0"/>
-      <c r="IG24" s="0"/>
-      <c r="IH24" s="0"/>
-      <c r="II24" s="0"/>
-      <c r="IJ24" s="0"/>
-      <c r="IK24" s="0"/>
-      <c r="IL24" s="0"/>
-      <c r="IM24" s="0"/>
-      <c r="IN24" s="0"/>
-      <c r="IO24" s="0"/>
-      <c r="IP24" s="0"/>
-      <c r="IQ24" s="0"/>
+        <v>99</v>
+      </c>
+      <c r="B24" s="58" t="n">
+        <v>-147.432975</v>
+      </c>
+      <c r="C24" s="58" t="n">
+        <v>-147.496908333</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
-      <c r="M25" s="0"/>
-      <c r="N25" s="0"/>
-      <c r="O25" s="0"/>
-      <c r="P25" s="0"/>
-      <c r="Q25" s="0"/>
-      <c r="R25" s="0"/>
-      <c r="S25" s="0"/>
-      <c r="T25" s="0"/>
-      <c r="U25" s="0"/>
-      <c r="V25" s="0"/>
-      <c r="W25" s="0"/>
-      <c r="X25" s="0"/>
-      <c r="Y25" s="0"/>
-      <c r="Z25" s="0"/>
-      <c r="AA25" s="0"/>
-      <c r="AB25" s="0"/>
-      <c r="AC25" s="0"/>
-      <c r="AD25" s="0"/>
-      <c r="AE25" s="0"/>
-      <c r="AF25" s="0"/>
-      <c r="AG25" s="0"/>
-      <c r="AH25" s="0"/>
-      <c r="AI25" s="0"/>
-      <c r="AJ25" s="0"/>
-      <c r="AK25" s="0"/>
-      <c r="AL25" s="0"/>
-      <c r="AM25" s="0"/>
-      <c r="AN25" s="0"/>
-      <c r="AO25" s="0"/>
-      <c r="AP25" s="0"/>
-      <c r="AQ25" s="0"/>
-      <c r="AR25" s="0"/>
-      <c r="AS25" s="0"/>
-      <c r="AT25" s="0"/>
-      <c r="AU25" s="0"/>
-      <c r="AV25" s="0"/>
-      <c r="AW25" s="0"/>
-      <c r="AX25" s="0"/>
-      <c r="AY25" s="0"/>
-      <c r="AZ25" s="0"/>
-      <c r="BA25" s="0"/>
-      <c r="BB25" s="0"/>
-      <c r="BC25" s="0"/>
-      <c r="BD25" s="0"/>
-      <c r="BE25" s="0"/>
-      <c r="BF25" s="0"/>
-      <c r="BG25" s="0"/>
-      <c r="BH25" s="0"/>
-      <c r="BI25" s="0"/>
-      <c r="BJ25" s="0"/>
-      <c r="BK25" s="0"/>
-      <c r="BL25" s="0"/>
-      <c r="BM25" s="0"/>
-      <c r="BN25" s="0"/>
-      <c r="BO25" s="0"/>
-      <c r="BP25" s="0"/>
-      <c r="BQ25" s="0"/>
-      <c r="BR25" s="0"/>
-      <c r="BS25" s="0"/>
-      <c r="BT25" s="0"/>
-      <c r="BU25" s="0"/>
-      <c r="BV25" s="0"/>
-      <c r="BW25" s="0"/>
-      <c r="BX25" s="0"/>
-      <c r="BY25" s="0"/>
-      <c r="BZ25" s="0"/>
-      <c r="CA25" s="0"/>
-      <c r="CB25" s="0"/>
-      <c r="CC25" s="0"/>
-      <c r="CD25" s="0"/>
-      <c r="CE25" s="0"/>
-      <c r="CF25" s="0"/>
-      <c r="CG25" s="0"/>
-      <c r="CH25" s="0"/>
-      <c r="CI25" s="0"/>
-      <c r="CJ25" s="0"/>
-      <c r="CK25" s="0"/>
-      <c r="CL25" s="0"/>
-      <c r="CM25" s="0"/>
-      <c r="CN25" s="0"/>
-      <c r="CO25" s="0"/>
-      <c r="CP25" s="0"/>
-      <c r="CQ25" s="0"/>
-      <c r="CR25" s="0"/>
-      <c r="CS25" s="0"/>
-      <c r="CT25" s="0"/>
-      <c r="CU25" s="0"/>
-      <c r="CV25" s="0"/>
-      <c r="CW25" s="0"/>
-      <c r="CX25" s="0"/>
-      <c r="CY25" s="0"/>
-      <c r="CZ25" s="0"/>
-      <c r="DA25" s="0"/>
-      <c r="DB25" s="0"/>
-      <c r="DC25" s="0"/>
-      <c r="DD25" s="0"/>
-      <c r="DE25" s="0"/>
-      <c r="DF25" s="0"/>
-      <c r="DG25" s="0"/>
-      <c r="DH25" s="0"/>
-      <c r="DI25" s="0"/>
-      <c r="DJ25" s="0"/>
-      <c r="DK25" s="0"/>
-      <c r="DL25" s="0"/>
-      <c r="DM25" s="0"/>
-      <c r="DN25" s="0"/>
-      <c r="DO25" s="0"/>
-      <c r="DP25" s="0"/>
-      <c r="DQ25" s="0"/>
-      <c r="DR25" s="0"/>
-      <c r="DS25" s="0"/>
-      <c r="DT25" s="0"/>
-      <c r="DU25" s="0"/>
-      <c r="DV25" s="0"/>
-      <c r="DW25" s="0"/>
-      <c r="DX25" s="0"/>
-      <c r="DY25" s="0"/>
-      <c r="DZ25" s="0"/>
-      <c r="EA25" s="0"/>
-      <c r="EB25" s="0"/>
-      <c r="EC25" s="0"/>
-      <c r="ED25" s="0"/>
-      <c r="EE25" s="0"/>
-      <c r="EF25" s="0"/>
-      <c r="EG25" s="0"/>
-      <c r="EH25" s="0"/>
-      <c r="EI25" s="0"/>
-      <c r="EJ25" s="0"/>
-      <c r="EK25" s="0"/>
-      <c r="EL25" s="0"/>
-      <c r="EM25" s="0"/>
-      <c r="EN25" s="0"/>
-      <c r="EO25" s="0"/>
-      <c r="EP25" s="0"/>
-      <c r="EQ25" s="0"/>
-      <c r="ER25" s="0"/>
-      <c r="ES25" s="0"/>
-      <c r="ET25" s="0"/>
-      <c r="EU25" s="0"/>
-      <c r="EV25" s="0"/>
-      <c r="EW25" s="0"/>
-      <c r="EX25" s="0"/>
-      <c r="EY25" s="0"/>
-      <c r="EZ25" s="0"/>
-      <c r="FA25" s="0"/>
-      <c r="FB25" s="0"/>
-      <c r="FC25" s="0"/>
-      <c r="FD25" s="0"/>
-      <c r="FE25" s="0"/>
-      <c r="FF25" s="0"/>
-      <c r="FG25" s="0"/>
-      <c r="FH25" s="0"/>
-      <c r="FI25" s="0"/>
-      <c r="FJ25" s="0"/>
-      <c r="FK25" s="0"/>
-      <c r="FL25" s="0"/>
-      <c r="FM25" s="0"/>
-      <c r="FN25" s="0"/>
-      <c r="FO25" s="0"/>
-      <c r="FP25" s="0"/>
-      <c r="FQ25" s="0"/>
-      <c r="FR25" s="0"/>
-      <c r="FS25" s="0"/>
-      <c r="FT25" s="0"/>
-      <c r="FU25" s="0"/>
-      <c r="FV25" s="0"/>
-      <c r="FW25" s="0"/>
-      <c r="FX25" s="0"/>
-      <c r="FY25" s="0"/>
-      <c r="FZ25" s="0"/>
-      <c r="GA25" s="0"/>
-      <c r="GB25" s="0"/>
-      <c r="GC25" s="0"/>
-      <c r="GD25" s="0"/>
-      <c r="GE25" s="0"/>
-      <c r="GF25" s="0"/>
-      <c r="GG25" s="0"/>
-      <c r="GH25" s="0"/>
-      <c r="GI25" s="0"/>
-      <c r="GJ25" s="0"/>
-      <c r="GK25" s="0"/>
-      <c r="GL25" s="0"/>
-      <c r="GM25" s="0"/>
-      <c r="GN25" s="0"/>
-      <c r="GO25" s="0"/>
-      <c r="GP25" s="0"/>
-      <c r="GQ25" s="0"/>
-      <c r="GR25" s="0"/>
-      <c r="GS25" s="0"/>
-      <c r="GT25" s="0"/>
-      <c r="GU25" s="0"/>
-      <c r="GV25" s="0"/>
-      <c r="GW25" s="0"/>
-      <c r="GX25" s="0"/>
-      <c r="GY25" s="0"/>
-      <c r="GZ25" s="0"/>
-      <c r="HA25" s="0"/>
-      <c r="HB25" s="0"/>
-      <c r="HC25" s="0"/>
-      <c r="HD25" s="0"/>
-      <c r="HE25" s="0"/>
-      <c r="HF25" s="0"/>
-      <c r="HG25" s="0"/>
-      <c r="HH25" s="0"/>
-      <c r="HI25" s="0"/>
-      <c r="HJ25" s="0"/>
-      <c r="HK25" s="0"/>
-      <c r="HL25" s="0"/>
-      <c r="HM25" s="0"/>
-      <c r="HN25" s="0"/>
-      <c r="HO25" s="0"/>
-      <c r="HP25" s="0"/>
-      <c r="HQ25" s="0"/>
-      <c r="HR25" s="0"/>
-      <c r="HS25" s="0"/>
-      <c r="HT25" s="0"/>
-      <c r="HU25" s="0"/>
-      <c r="HV25" s="0"/>
-      <c r="HW25" s="0"/>
-      <c r="HX25" s="0"/>
-      <c r="HY25" s="0"/>
-      <c r="HZ25" s="0"/>
-      <c r="IA25" s="0"/>
-      <c r="IB25" s="0"/>
-      <c r="IC25" s="0"/>
-      <c r="ID25" s="0"/>
-      <c r="IE25" s="0"/>
-      <c r="IF25" s="0"/>
-      <c r="IG25" s="0"/>
-      <c r="IH25" s="0"/>
-      <c r="II25" s="0"/>
-      <c r="IJ25" s="0"/>
-      <c r="IK25" s="0"/>
-      <c r="IL25" s="0"/>
-      <c r="IM25" s="0"/>
-      <c r="IN25" s="0"/>
-      <c r="IO25" s="0"/>
-      <c r="IP25" s="0"/>
-      <c r="IQ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D26" s="0"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
-      <c r="I26" s="0"/>
-      <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
-      <c r="L26" s="0"/>
-      <c r="M26" s="0"/>
-      <c r="N26" s="0"/>
-      <c r="O26" s="0"/>
-      <c r="P26" s="0"/>
-      <c r="Q26" s="0"/>
-      <c r="R26" s="0"/>
-      <c r="S26" s="0"/>
-      <c r="T26" s="0"/>
-      <c r="U26" s="0"/>
-      <c r="V26" s="0"/>
-      <c r="W26" s="0"/>
-      <c r="X26" s="0"/>
-      <c r="Y26" s="0"/>
-      <c r="Z26" s="0"/>
-      <c r="AA26" s="0"/>
-      <c r="AB26" s="0"/>
-      <c r="AC26" s="0"/>
-      <c r="AD26" s="0"/>
-      <c r="AE26" s="0"/>
-      <c r="AF26" s="0"/>
-      <c r="AG26" s="0"/>
-      <c r="AH26" s="0"/>
-      <c r="AI26" s="0"/>
-      <c r="AJ26" s="0"/>
-      <c r="AK26" s="0"/>
-      <c r="AL26" s="0"/>
-      <c r="AM26" s="0"/>
-      <c r="AN26" s="0"/>
-      <c r="AO26" s="0"/>
-      <c r="AP26" s="0"/>
-      <c r="AQ26" s="0"/>
-      <c r="AR26" s="0"/>
-      <c r="AS26" s="0"/>
-      <c r="AT26" s="0"/>
-      <c r="AU26" s="0"/>
-      <c r="AV26" s="0"/>
-      <c r="AW26" s="0"/>
-      <c r="AX26" s="0"/>
-      <c r="AY26" s="0"/>
-      <c r="AZ26" s="0"/>
-      <c r="BA26" s="0"/>
-      <c r="BB26" s="0"/>
-      <c r="BC26" s="0"/>
-      <c r="BD26" s="0"/>
-      <c r="BE26" s="0"/>
-      <c r="BF26" s="0"/>
-      <c r="BG26" s="0"/>
-      <c r="BH26" s="0"/>
-      <c r="BI26" s="0"/>
-      <c r="BJ26" s="0"/>
-      <c r="BK26" s="0"/>
-      <c r="BL26" s="0"/>
-      <c r="BM26" s="0"/>
-      <c r="BN26" s="0"/>
-      <c r="BO26" s="0"/>
-      <c r="BP26" s="0"/>
-      <c r="BQ26" s="0"/>
-      <c r="BR26" s="0"/>
-      <c r="BS26" s="0"/>
-      <c r="BT26" s="0"/>
-      <c r="BU26" s="0"/>
-      <c r="BV26" s="0"/>
-      <c r="BW26" s="0"/>
-      <c r="BX26" s="0"/>
-      <c r="BY26" s="0"/>
-      <c r="BZ26" s="0"/>
-      <c r="CA26" s="0"/>
-      <c r="CB26" s="0"/>
-      <c r="CC26" s="0"/>
-      <c r="CD26" s="0"/>
-      <c r="CE26" s="0"/>
-      <c r="CF26" s="0"/>
-      <c r="CG26" s="0"/>
-      <c r="CH26" s="0"/>
-      <c r="CI26" s="0"/>
-      <c r="CJ26" s="0"/>
-      <c r="CK26" s="0"/>
-      <c r="CL26" s="0"/>
-      <c r="CM26" s="0"/>
-      <c r="CN26" s="0"/>
-      <c r="CO26" s="0"/>
-      <c r="CP26" s="0"/>
-      <c r="CQ26" s="0"/>
-      <c r="CR26" s="0"/>
-      <c r="CS26" s="0"/>
-      <c r="CT26" s="0"/>
-      <c r="CU26" s="0"/>
-      <c r="CV26" s="0"/>
-      <c r="CW26" s="0"/>
-      <c r="CX26" s="0"/>
-      <c r="CY26" s="0"/>
-      <c r="CZ26" s="0"/>
-      <c r="DA26" s="0"/>
-      <c r="DB26" s="0"/>
-      <c r="DC26" s="0"/>
-      <c r="DD26" s="0"/>
-      <c r="DE26" s="0"/>
-      <c r="DF26" s="0"/>
-      <c r="DG26" s="0"/>
-      <c r="DH26" s="0"/>
-      <c r="DI26" s="0"/>
-      <c r="DJ26" s="0"/>
-      <c r="DK26" s="0"/>
-      <c r="DL26" s="0"/>
-      <c r="DM26" s="0"/>
-      <c r="DN26" s="0"/>
-      <c r="DO26" s="0"/>
-      <c r="DP26" s="0"/>
-      <c r="DQ26" s="0"/>
-      <c r="DR26" s="0"/>
-      <c r="DS26" s="0"/>
-      <c r="DT26" s="0"/>
-      <c r="DU26" s="0"/>
-      <c r="DV26" s="0"/>
-      <c r="DW26" s="0"/>
-      <c r="DX26" s="0"/>
-      <c r="DY26" s="0"/>
-      <c r="DZ26" s="0"/>
-      <c r="EA26" s="0"/>
-      <c r="EB26" s="0"/>
-      <c r="EC26" s="0"/>
-      <c r="ED26" s="0"/>
-      <c r="EE26" s="0"/>
-      <c r="EF26" s="0"/>
-      <c r="EG26" s="0"/>
-      <c r="EH26" s="0"/>
-      <c r="EI26" s="0"/>
-      <c r="EJ26" s="0"/>
-      <c r="EK26" s="0"/>
-      <c r="EL26" s="0"/>
-      <c r="EM26" s="0"/>
-      <c r="EN26" s="0"/>
-      <c r="EO26" s="0"/>
-      <c r="EP26" s="0"/>
-      <c r="EQ26" s="0"/>
-      <c r="ER26" s="0"/>
-      <c r="ES26" s="0"/>
-      <c r="ET26" s="0"/>
-      <c r="EU26" s="0"/>
-      <c r="EV26" s="0"/>
-      <c r="EW26" s="0"/>
-      <c r="EX26" s="0"/>
-      <c r="EY26" s="0"/>
-      <c r="EZ26" s="0"/>
-      <c r="FA26" s="0"/>
-      <c r="FB26" s="0"/>
-      <c r="FC26" s="0"/>
-      <c r="FD26" s="0"/>
-      <c r="FE26" s="0"/>
-      <c r="FF26" s="0"/>
-      <c r="FG26" s="0"/>
-      <c r="FH26" s="0"/>
-      <c r="FI26" s="0"/>
-      <c r="FJ26" s="0"/>
-      <c r="FK26" s="0"/>
-      <c r="FL26" s="0"/>
-      <c r="FM26" s="0"/>
-      <c r="FN26" s="0"/>
-      <c r="FO26" s="0"/>
-      <c r="FP26" s="0"/>
-      <c r="FQ26" s="0"/>
-      <c r="FR26" s="0"/>
-      <c r="FS26" s="0"/>
-      <c r="FT26" s="0"/>
-      <c r="FU26" s="0"/>
-      <c r="FV26" s="0"/>
-      <c r="FW26" s="0"/>
-      <c r="FX26" s="0"/>
-      <c r="FY26" s="0"/>
-      <c r="FZ26" s="0"/>
-      <c r="GA26" s="0"/>
-      <c r="GB26" s="0"/>
-      <c r="GC26" s="0"/>
-      <c r="GD26" s="0"/>
-      <c r="GE26" s="0"/>
-      <c r="GF26" s="0"/>
-      <c r="GG26" s="0"/>
-      <c r="GH26" s="0"/>
-      <c r="GI26" s="0"/>
-      <c r="GJ26" s="0"/>
-      <c r="GK26" s="0"/>
-      <c r="GL26" s="0"/>
-      <c r="GM26" s="0"/>
-      <c r="GN26" s="0"/>
-      <c r="GO26" s="0"/>
-      <c r="GP26" s="0"/>
-      <c r="GQ26" s="0"/>
-      <c r="GR26" s="0"/>
-      <c r="GS26" s="0"/>
-      <c r="GT26" s="0"/>
-      <c r="GU26" s="0"/>
-      <c r="GV26" s="0"/>
-      <c r="GW26" s="0"/>
-      <c r="GX26" s="0"/>
-      <c r="GY26" s="0"/>
-      <c r="GZ26" s="0"/>
-      <c r="HA26" s="0"/>
-      <c r="HB26" s="0"/>
-      <c r="HC26" s="0"/>
-      <c r="HD26" s="0"/>
-      <c r="HE26" s="0"/>
-      <c r="HF26" s="0"/>
-      <c r="HG26" s="0"/>
-      <c r="HH26" s="0"/>
-      <c r="HI26" s="0"/>
-      <c r="HJ26" s="0"/>
-      <c r="HK26" s="0"/>
-      <c r="HL26" s="0"/>
-      <c r="HM26" s="0"/>
-      <c r="HN26" s="0"/>
-      <c r="HO26" s="0"/>
-      <c r="HP26" s="0"/>
-      <c r="HQ26" s="0"/>
-      <c r="HR26" s="0"/>
-      <c r="HS26" s="0"/>
-      <c r="HT26" s="0"/>
-      <c r="HU26" s="0"/>
-      <c r="HV26" s="0"/>
-      <c r="HW26" s="0"/>
-      <c r="HX26" s="0"/>
-      <c r="HY26" s="0"/>
-      <c r="HZ26" s="0"/>
-      <c r="IA26" s="0"/>
-      <c r="IB26" s="0"/>
-      <c r="IC26" s="0"/>
-      <c r="ID26" s="0"/>
-      <c r="IE26" s="0"/>
-      <c r="IF26" s="0"/>
-      <c r="IG26" s="0"/>
-      <c r="IH26" s="0"/>
-      <c r="II26" s="0"/>
-      <c r="IJ26" s="0"/>
-      <c r="IK26" s="0"/>
-      <c r="IL26" s="0"/>
-      <c r="IM26" s="0"/>
-      <c r="IN26" s="0"/>
-      <c r="IO26" s="0"/>
-      <c r="IP26" s="0"/>
-      <c r="IQ26" s="0"/>
+        <v>100</v>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>77.51</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>77.5</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" s="0"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-      <c r="K27" s="0"/>
-      <c r="L27" s="0"/>
-      <c r="M27" s="0"/>
-      <c r="N27" s="0"/>
-      <c r="O27" s="0"/>
-      <c r="P27" s="0"/>
-      <c r="Q27" s="0"/>
-      <c r="R27" s="0"/>
-      <c r="S27" s="0"/>
-      <c r="T27" s="0"/>
-      <c r="U27" s="0"/>
-      <c r="V27" s="0"/>
-      <c r="W27" s="0"/>
-      <c r="X27" s="0"/>
-      <c r="Y27" s="0"/>
-      <c r="Z27" s="0"/>
-      <c r="AA27" s="0"/>
-      <c r="AB27" s="0"/>
-      <c r="AC27" s="0"/>
-      <c r="AD27" s="0"/>
-      <c r="AE27" s="0"/>
-      <c r="AF27" s="0"/>
-      <c r="AG27" s="0"/>
-      <c r="AH27" s="0"/>
-      <c r="AI27" s="0"/>
-      <c r="AJ27" s="0"/>
-      <c r="AK27" s="0"/>
-      <c r="AL27" s="0"/>
-      <c r="AM27" s="0"/>
-      <c r="AN27" s="0"/>
-      <c r="AO27" s="0"/>
-      <c r="AP27" s="0"/>
-      <c r="AQ27" s="0"/>
-      <c r="AR27" s="0"/>
-      <c r="AS27" s="0"/>
-      <c r="AT27" s="0"/>
-      <c r="AU27" s="0"/>
-      <c r="AV27" s="0"/>
-      <c r="AW27" s="0"/>
-      <c r="AX27" s="0"/>
-      <c r="AY27" s="0"/>
-      <c r="AZ27" s="0"/>
-      <c r="BA27" s="0"/>
-      <c r="BB27" s="0"/>
-      <c r="BC27" s="0"/>
-      <c r="BD27" s="0"/>
-      <c r="BE27" s="0"/>
-      <c r="BF27" s="0"/>
-      <c r="BG27" s="0"/>
-      <c r="BH27" s="0"/>
-      <c r="BI27" s="0"/>
-      <c r="BJ27" s="0"/>
-      <c r="BK27" s="0"/>
-      <c r="BL27" s="0"/>
-      <c r="BM27" s="0"/>
-      <c r="BN27" s="0"/>
-      <c r="BO27" s="0"/>
-      <c r="BP27" s="0"/>
-      <c r="BQ27" s="0"/>
-      <c r="BR27" s="0"/>
-      <c r="BS27" s="0"/>
-      <c r="BT27" s="0"/>
-      <c r="BU27" s="0"/>
-      <c r="BV27" s="0"/>
-      <c r="BW27" s="0"/>
-      <c r="BX27" s="0"/>
-      <c r="BY27" s="0"/>
-      <c r="BZ27" s="0"/>
-      <c r="CA27" s="0"/>
-      <c r="CB27" s="0"/>
-      <c r="CC27" s="0"/>
-      <c r="CD27" s="0"/>
-      <c r="CE27" s="0"/>
-      <c r="CF27" s="0"/>
-      <c r="CG27" s="0"/>
-      <c r="CH27" s="0"/>
-      <c r="CI27" s="0"/>
-      <c r="CJ27" s="0"/>
-      <c r="CK27" s="0"/>
-      <c r="CL27" s="0"/>
-      <c r="CM27" s="0"/>
-      <c r="CN27" s="0"/>
-      <c r="CO27" s="0"/>
-      <c r="CP27" s="0"/>
-      <c r="CQ27" s="0"/>
-      <c r="CR27" s="0"/>
-      <c r="CS27" s="0"/>
-      <c r="CT27" s="0"/>
-      <c r="CU27" s="0"/>
-      <c r="CV27" s="0"/>
-      <c r="CW27" s="0"/>
-      <c r="CX27" s="0"/>
-      <c r="CY27" s="0"/>
-      <c r="CZ27" s="0"/>
-      <c r="DA27" s="0"/>
-      <c r="DB27" s="0"/>
-      <c r="DC27" s="0"/>
-      <c r="DD27" s="0"/>
-      <c r="DE27" s="0"/>
-      <c r="DF27" s="0"/>
-      <c r="DG27" s="0"/>
-      <c r="DH27" s="0"/>
-      <c r="DI27" s="0"/>
-      <c r="DJ27" s="0"/>
-      <c r="DK27" s="0"/>
-      <c r="DL27" s="0"/>
-      <c r="DM27" s="0"/>
-      <c r="DN27" s="0"/>
-      <c r="DO27" s="0"/>
-      <c r="DP27" s="0"/>
-      <c r="DQ27" s="0"/>
-      <c r="DR27" s="0"/>
-      <c r="DS27" s="0"/>
-      <c r="DT27" s="0"/>
-      <c r="DU27" s="0"/>
-      <c r="DV27" s="0"/>
-      <c r="DW27" s="0"/>
-      <c r="DX27" s="0"/>
-      <c r="DY27" s="0"/>
-      <c r="DZ27" s="0"/>
-      <c r="EA27" s="0"/>
-      <c r="EB27" s="0"/>
-      <c r="EC27" s="0"/>
-      <c r="ED27" s="0"/>
-      <c r="EE27" s="0"/>
-      <c r="EF27" s="0"/>
-      <c r="EG27" s="0"/>
-      <c r="EH27" s="0"/>
-      <c r="EI27" s="0"/>
-      <c r="EJ27" s="0"/>
-      <c r="EK27" s="0"/>
-      <c r="EL27" s="0"/>
-      <c r="EM27" s="0"/>
-      <c r="EN27" s="0"/>
-      <c r="EO27" s="0"/>
-      <c r="EP27" s="0"/>
-      <c r="EQ27" s="0"/>
-      <c r="ER27" s="0"/>
-      <c r="ES27" s="0"/>
-      <c r="ET27" s="0"/>
-      <c r="EU27" s="0"/>
-      <c r="EV27" s="0"/>
-      <c r="EW27" s="0"/>
-      <c r="EX27" s="0"/>
-      <c r="EY27" s="0"/>
-      <c r="EZ27" s="0"/>
-      <c r="FA27" s="0"/>
-      <c r="FB27" s="0"/>
-      <c r="FC27" s="0"/>
-      <c r="FD27" s="0"/>
-      <c r="FE27" s="0"/>
-      <c r="FF27" s="0"/>
-      <c r="FG27" s="0"/>
-      <c r="FH27" s="0"/>
-      <c r="FI27" s="0"/>
-      <c r="FJ27" s="0"/>
-      <c r="FK27" s="0"/>
-      <c r="FL27" s="0"/>
-      <c r="FM27" s="0"/>
-      <c r="FN27" s="0"/>
-      <c r="FO27" s="0"/>
-      <c r="FP27" s="0"/>
-      <c r="FQ27" s="0"/>
-      <c r="FR27" s="0"/>
-      <c r="FS27" s="0"/>
-      <c r="FT27" s="0"/>
-      <c r="FU27" s="0"/>
-      <c r="FV27" s="0"/>
-      <c r="FW27" s="0"/>
-      <c r="FX27" s="0"/>
-      <c r="FY27" s="0"/>
-      <c r="FZ27" s="0"/>
-      <c r="GA27" s="0"/>
-      <c r="GB27" s="0"/>
-      <c r="GC27" s="0"/>
-      <c r="GD27" s="0"/>
-      <c r="GE27" s="0"/>
-      <c r="GF27" s="0"/>
-      <c r="GG27" s="0"/>
-      <c r="GH27" s="0"/>
-      <c r="GI27" s="0"/>
-      <c r="GJ27" s="0"/>
-      <c r="GK27" s="0"/>
-      <c r="GL27" s="0"/>
-      <c r="GM27" s="0"/>
-      <c r="GN27" s="0"/>
-      <c r="GO27" s="0"/>
-      <c r="GP27" s="0"/>
-      <c r="GQ27" s="0"/>
-      <c r="GR27" s="0"/>
-      <c r="GS27" s="0"/>
-      <c r="GT27" s="0"/>
-      <c r="GU27" s="0"/>
-      <c r="GV27" s="0"/>
-      <c r="GW27" s="0"/>
-      <c r="GX27" s="0"/>
-      <c r="GY27" s="0"/>
-      <c r="GZ27" s="0"/>
-      <c r="HA27" s="0"/>
-      <c r="HB27" s="0"/>
-      <c r="HC27" s="0"/>
-      <c r="HD27" s="0"/>
-      <c r="HE27" s="0"/>
-      <c r="HF27" s="0"/>
-      <c r="HG27" s="0"/>
-      <c r="HH27" s="0"/>
-      <c r="HI27" s="0"/>
-      <c r="HJ27" s="0"/>
-      <c r="HK27" s="0"/>
-      <c r="HL27" s="0"/>
-      <c r="HM27" s="0"/>
-      <c r="HN27" s="0"/>
-      <c r="HO27" s="0"/>
-      <c r="HP27" s="0"/>
-      <c r="HQ27" s="0"/>
-      <c r="HR27" s="0"/>
-      <c r="HS27" s="0"/>
-      <c r="HT27" s="0"/>
-      <c r="HU27" s="0"/>
-      <c r="HV27" s="0"/>
-      <c r="HW27" s="0"/>
-      <c r="HX27" s="0"/>
-      <c r="HY27" s="0"/>
-      <c r="HZ27" s="0"/>
-      <c r="IA27" s="0"/>
-      <c r="IB27" s="0"/>
-      <c r="IC27" s="0"/>
-      <c r="ID27" s="0"/>
-      <c r="IE27" s="0"/>
-      <c r="IF27" s="0"/>
-      <c r="IG27" s="0"/>
-      <c r="IH27" s="0"/>
-      <c r="II27" s="0"/>
-      <c r="IJ27" s="0"/>
-      <c r="IK27" s="0"/>
-      <c r="IL27" s="0"/>
-      <c r="IM27" s="0"/>
-      <c r="IN27" s="0"/>
-      <c r="IO27" s="0"/>
-      <c r="IP27" s="0"/>
-      <c r="IQ27" s="0"/>
+        <v>101</v>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>19.9</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
+      <c r="A28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="65" t="n">
-        <v>65.1186367</v>
-      </c>
-      <c r="C29" s="65" t="n">
-        <v>65.12657</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="65" t="n">
-        <v>-147.432975</v>
-      </c>
-      <c r="C30" s="65" t="n">
-        <v>-147.496908333</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="4" t="n">
-        <v>77.51</v>
-      </c>
-      <c r="C32" s="4" t="n">
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="4" t="n">
-        <v>19.92</v>
-      </c>
-      <c r="C33" s="4" t="n">
-        <v>19.9</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0"/>
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="66" t="n">
+      <c r="B31" s="59" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C37" s="66" t="n">
+      <c r="C31" s="59" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="46" t="n">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="C38" s="46" t="n">
+      <c r="C32" s="46" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="46" t="n">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="46" t="n">
+      <c r="C33" s="46" t="n">
         <v>1</v>
       </c>
     </row>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -287,7 +287,7 @@
     <t>ActualDataDir</t>
   </si>
   <si>
-    <t>~/HSTdata/DataField/2013-04-14</t>
+    <t>~/data</t>
   </si>
   <si>
     <t>BG3transFN</t>
@@ -518,10 +518,10 @@
     <t>fn</t>
   </si>
   <si>
-    <t>2013-04-14T8-54_cam0.h5</t>
-  </si>
-  <si>
-    <t>2013-04-14T8-54_cam1.h5</t>
+    <t>2013-04-14T8-54_hst0.h5</t>
+  </si>
+  <si>
+    <t>2013-04-14T8-54_hst1.h5</t>
   </si>
   <si>
     <t>plotMinVal</t>
@@ -1187,21 +1187,22 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E14" activeCellId="1" sqref="B:C E14"/>
+      <selection pane="bottomLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,15 +1904,14 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="B:C"/>
+      <selection pane="bottomLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="46" width="29.484693877551"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="46" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="46" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="46" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5270,7 +5270,7 @@
         <v>91</v>
       </c>
       <c r="B14" s="55" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C14" s="56" t="n">
         <v>1000</v>
@@ -5529,7 +5529,7 @@
         <v>92</v>
       </c>
       <c r="B15" s="55" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="C15" s="56" t="n">
         <v>2500</v>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -708,7 +708,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +737,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
         <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5D5FF"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -865,7 +871,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1102,6 +1108,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1140,7 +1150,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFD5D5FF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1194,15 +1204,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1904,14 +1914,15 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="46" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="46" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="20.25"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="46" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="46" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7409,38 +7420,20 @@
       <c r="C30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="59" t="n">
-        <f aca="false">(0.0016)^2</f>
-        <v>2.56E-006</v>
-      </c>
-      <c r="C31" s="59" t="n">
-        <f aca="false">(0.0016)^2</f>
-        <v>2.56E-006</v>
-      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="46" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="59" t="s">
         <v>109</v>
-      </c>
-      <c r="B33" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="46" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -1914,7 +1914,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6312,12 +6312,8 @@
       <c r="A18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="57" t="n">
-        <v>2150</v>
-      </c>
-      <c r="C18" s="57" t="n">
-        <v>2150</v>
-      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -1199,7 +1199,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D12" activeCellId="1" sqref="B31:C33 D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1914,7 +1914,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="B31" activeCellId="0" sqref="B31:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -7419,17 +7419,35 @@
       <c r="A31" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
+      <c r="B31" s="60" t="n">
+        <f aca="false">(0.0016)^2</f>
+        <v>2.56E-006</v>
+      </c>
+      <c r="C31" s="60" t="n">
+        <f aca="false">(0.0016)^2</f>
+        <v>2.56E-006</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="59" t="s">
         <v>108</v>
       </c>
+      <c r="B32" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="59" t="s">
         <v>109</v>
+      </c>
+      <c r="B33" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="46" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -1196,23 +1196,23 @@
   </sheetPr>
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D12" activeCellId="1" sqref="B31:C33 D12"/>
+      <selection pane="bottomLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,7 +1789,7 @@
       <c r="C54" s="0"/>
       <c r="D54" s="5"/>
       <c r="E54" s="39" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F54" s="13"/>
     </row>
@@ -1911,18 +1911,18 @@
   </sheetPr>
   <dimension ref="A1:IQ33"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B31" activeCellId="0" sqref="B31:C33"/>
+      <selection pane="bottomLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="20.25"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="46" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="46" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="46" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="46" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -871,7 +871,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1100,10 +1100,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1199,20 +1195,19 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
+      <selection pane="bottomLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="26.4591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,7 +1784,7 @@
       <c r="C54" s="0"/>
       <c r="D54" s="5"/>
       <c r="E54" s="39" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F54" s="13"/>
     </row>
@@ -1914,15 +1909,15 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="46" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="46" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="46" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="46" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6312,8 +6307,12 @@
       <c r="A18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
+      <c r="B18" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1500</v>
+      </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
@@ -7343,10 +7342,10 @@
       <c r="A23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="58" t="n">
+      <c r="B23" s="57" t="n">
         <v>65.1186367</v>
       </c>
-      <c r="C23" s="58" t="n">
+      <c r="C23" s="57" t="n">
         <v>65.12657</v>
       </c>
     </row>
@@ -7354,10 +7353,10 @@
       <c r="A24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="58" t="n">
+      <c r="B24" s="57" t="n">
         <v>-147.432975</v>
       </c>
-      <c r="C24" s="58" t="n">
+      <c r="C24" s="57" t="n">
         <v>-147.496908333</v>
       </c>
     </row>
@@ -7416,20 +7415,20 @@
       <c r="C30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="60" t="n">
+      <c r="B31" s="59" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C31" s="60" t="n">
+      <c r="C31" s="59" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="58" t="s">
         <v>108</v>
       </c>
       <c r="B32" s="46" t="n">
@@ -7440,14 +7439,14 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="58" t="s">
         <v>109</v>
       </c>
       <c r="B33" s="46" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="C33" s="46" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -1784,7 +1784,7 @@
       <c r="C54" s="0"/>
       <c r="D54" s="5"/>
       <c r="E54" s="39" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F54" s="13"/>
     </row>
@@ -1909,7 +1909,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6308,10 +6308,10 @@
         <v>95</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,11 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm_Sheet_Title" vbProcedure="false">"Sheet1"</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -287,7 +292,7 @@
     <t>ActualDataDir</t>
   </si>
   <si>
-    <t>~/data</t>
+    <t>~/data/2013-04-14/HST</t>
   </si>
   <si>
     <t>BG3transFN</t>
@@ -1193,21 +1198,22 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
+      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,10 +1920,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="46" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="46" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="46" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="46" width="9.44897959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -170,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0">
+    <comment ref="F11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
   <si>
     <t>Sim</t>
   </si>
@@ -266,12 +266,6 @@
   </si>
   <si>
     <t>Recon</t>
-  </si>
-  <si>
-    <t>ART</t>
-  </si>
-  <si>
-    <t>Obs</t>
   </si>
   <si>
     <t>Transcar</t>
@@ -590,12 +584,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0"/>
-    <numFmt numFmtId="168" formatCode="0.00E+000"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="0.00E+000"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -751,7 +744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -830,13 +823,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
@@ -876,7 +862,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -885,12 +871,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1001,10 +987,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1045,18 +1027,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1073,15 +1043,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1113,7 +1083,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1195,239 +1165,213 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
+      <c r="F2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
+      <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
+        <v>8</v>
+      </c>
+      <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
+      <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
+      <c r="F7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
+      <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
+      <c r="F9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="13"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="14" t="s">
-        <v>22</v>
+      <c r="F10" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="5"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="14" t="s">
-        <v>24</v>
+      <c r="F11" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="5"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="15" t="s">
-        <v>27</v>
+      <c r="F13" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
+      <c r="F14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="7"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
+      <c r="F15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="7"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="16" t="s">
-        <v>31</v>
+      <c r="F16" s="16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="7"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="16" t="s">
-        <v>33</v>
+      <c r="F17" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="7"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="16" t="s">
-        <v>35</v>
+      <c r="F18" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="7"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="1" t="n">
+      <c r="F19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1435,111 +1379,100 @@
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="7"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="19" t="n">
         <v>200</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="19" t="n">
         <v>1200</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
+      <c r="F22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
+      <c r="F23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="7"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="1" t="s">
-        <v>40</v>
+      <c r="F24" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1547,203 +1480,178 @@
       <c r="A31" s="4"/>
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
+      <c r="F31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="7"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="23" t="n">
+      <c r="F32" s="23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="24"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="G34" s="0"/>
-      <c r="H34" s="0"/>
+      <c r="F34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="26" t="n">
         <v>0</v>
       </c>
       <c r="C35" s="26"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
+      <c r="F35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" s="22" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="22"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
+      <c r="F36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
+      <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="G38" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="0"/>
+      <c r="C38" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="0"/>
+      <c r="F39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B40" s="0"/>
-      <c r="C40" s="0"/>
-      <c r="G40" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" s="0"/>
+      <c r="C40" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41" s="0"/>
-      <c r="C41" s="0"/>
-      <c r="G41" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" s="0"/>
+      <c r="C41" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="0"/>
+      <c r="F42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="13"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="15" t="n">
+      <c r="F43" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="32" t="s">
-        <v>58</v>
+      <c r="A44" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
-      <c r="D44" s="33" t="n">
+      <c r="D44" s="32" t="n">
         <v>0.05</v>
       </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="0"/>
-      <c r="H44" s="0"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="32" t="s">
-        <v>59</v>
+      <c r="A45" s="31" t="s">
+        <v>57</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="0"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="32" t="s">
-        <v>60</v>
+      <c r="A46" s="31" t="s">
+        <v>58</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
-      <c r="D46" s="35" t="n">
+      <c r="D46" s="34" t="n">
         <v>-3.8</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="0"/>
-      <c r="H46" s="0"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="32" t="s">
-        <v>61</v>
+      <c r="A47" s="31" t="s">
+        <v>59</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
-      <c r="D47" s="35" t="n">
+      <c r="D47" s="34" t="n">
         <v>7.1</v>
       </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="0"/>
-      <c r="H47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="32" t="s">
-        <v>62</v>
+      <c r="E47" s="35"/>
+      <c r="F47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="31" t="s">
+        <v>60</v>
       </c>
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
-      <c r="D48" s="35" t="n">
+      <c r="D48" s="34" t="n">
         <v>89</v>
       </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="0"/>
-      <c r="H48" s="0"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="32" t="s">
-        <v>63</v>
+      <c r="A49" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
-      <c r="D49" s="37" t="n">
+      <c r="D49" s="36" t="n">
         <v>1000</v>
       </c>
-      <c r="E49" s="38"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="0"/>
-      <c r="H49" s="0"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
@@ -1751,17 +1659,15 @@
       <c r="C50" s="0"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B51" s="0"/>
       <c r="C51" s="0"/>
       <c r="D51" s="5"/>
       <c r="E51" s="15"/>
-      <c r="F51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
@@ -1769,34 +1675,31 @@
       <c r="C52" s="0"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="7"/>
       <c r="E53" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F53" s="13"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B54" s="0"/>
       <c r="C54" s="0"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="39" t="n">
+      <c r="E54" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="F54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B55" s="0"/>
       <c r="C55" s="0"/>
@@ -1804,11 +1707,10 @@
       <c r="E55" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
@@ -1816,82 +1718,73 @@
       <c r="E56" s="5" t="n">
         <v>800</v>
       </c>
-      <c r="F56" s="13"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="40"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="39"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
-      <c r="F58" s="42"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
-      <c r="F59" s="43"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
-      <c r="F60" s="44"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
-      <c r="F61" s="43"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B62" s="0"/>
       <c r="C62" s="0"/>
-      <c r="F62" s="28"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4"/>
       <c r="B63" s="0"/>
       <c r="C63" s="0"/>
-      <c r="F63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B64" s="0"/>
       <c r="C64" s="0"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="5"/>
+      <c r="E64" s="41"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0"/>
       <c r="C65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="32" t="s">
-        <v>76</v>
+      <c r="A66" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C66" s="5"/>
     </row>
-    <row r="80" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1920,17 +1813,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="46" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="46" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="42" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="42" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="47" t="n">
+      <c r="B1" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="47" t="n">
+      <c r="C1" s="43" t="n">
         <v>1</v>
       </c>
       <c r="D1" s="0"/>
@@ -2184,7 +2078,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2442,13 +2336,13 @@
       <c r="IQ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="48" t="n">
+      <c r="A3" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="48" t="n">
+      <c r="C3" s="44" t="n">
         <v>3.1436</v>
       </c>
       <c r="D3" s="0"/>
@@ -2701,13 +2595,13 @@
       <c r="IQ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="48" t="n">
+      <c r="A4" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="48" t="n">
+      <c r="C4" s="44" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0"/>
@@ -2960,8 +2854,8 @@
       <c r="IQ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
-        <v>81</v>
+      <c r="A5" s="31" t="s">
+        <v>79</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3219,13 +3113,13 @@
       <c r="IQ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="48" t="n">
+      <c r="A6" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="44" t="n">
         <v>90</v>
       </c>
-      <c r="C6" s="48" t="n">
+      <c r="C6" s="44" t="n">
         <v>88.0172525718237</v>
       </c>
       <c r="D6" s="0"/>
@@ -3478,13 +3372,13 @@
       <c r="IQ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="48" t="n">
+      <c r="A7" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="44" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="48" t="n">
+      <c r="C7" s="44" t="n">
         <v>9</v>
       </c>
       <c r="D7" s="0"/>
@@ -3737,8 +3631,8 @@
       <c r="IQ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32" t="s">
-        <v>84</v>
+      <c r="A8" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -3997,10 +3891,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
+        <v>83</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -4252,7 +4146,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -4507,9 +4401,9 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="52" t="n">
+        <v>85</v>
+      </c>
+      <c r="B11" s="48" t="n">
         <v>-0.188679245283019</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -4766,13 +4660,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="49" t="s">
         <v>88</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>90</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -5026,7 +4920,7 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0"/>
       <c r="B13" s="0"/>
-      <c r="C13" s="54"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
@@ -5278,12 +5172,12 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="55" t="n">
+        <v>89</v>
+      </c>
+      <c r="B14" s="51" t="n">
         <v>10</v>
       </c>
-      <c r="C14" s="56" t="n">
+      <c r="C14" s="52" t="n">
         <v>1000</v>
       </c>
       <c r="D14" s="0"/>
@@ -5537,12 +5431,12 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="55" t="n">
+        <v>90</v>
+      </c>
+      <c r="B15" s="51" t="n">
         <v>35000</v>
       </c>
-      <c r="C15" s="56" t="n">
+      <c r="C15" s="52" t="n">
         <v>2500</v>
       </c>
       <c r="D15" s="0"/>
@@ -5796,7 +5690,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="4" t="n">
         <v>0.1</v>
@@ -6055,7 +5949,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
@@ -6310,7 +6204,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2000</v>
@@ -6822,7 +6716,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B20" s="5" t="n">
         <v>15</v>
@@ -6831,7 +6725,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="0"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="1"/>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
@@ -7081,7 +6975,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B21" s="5" t="n">
         <v>2</v>
@@ -7090,7 +6984,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="1"/>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
@@ -7345,23 +7239,23 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="57" t="n">
+        <v>96</v>
+      </c>
+      <c r="B23" s="53" t="n">
         <v>65.1186367</v>
       </c>
-      <c r="C23" s="57" t="n">
+      <c r="C23" s="53" t="n">
         <v>65.12657</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="57" t="n">
+        <v>97</v>
+      </c>
+      <c r="B24" s="53" t="n">
         <v>-147.432975</v>
       </c>
-      <c r="C24" s="57" t="n">
+      <c r="C24" s="53" t="n">
         <v>-147.496908333</v>
       </c>
     </row>
@@ -7372,7 +7266,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B26" s="4" t="n">
         <v>77.51</v>
@@ -7383,7 +7277,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B27" s="4" t="n">
         <v>19.92</v>
@@ -7394,24 +7288,24 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7420,37 +7314,37 @@
       <c r="C30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="59" t="n">
+      <c r="A31" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="55" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C31" s="59" t="n">
+      <c r="C31" s="55" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="46" t="n">
+      <c r="A32" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="46" t="n">
+      <c r="C32" s="42" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="46" t="n">
+      <c r="A33" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="42" t="n">
         <v>200</v>
       </c>
-      <c r="C33" s="46" t="n">
+      <c r="C33" s="42" t="n">
         <v>200</v>
       </c>
     </row>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -1167,7 +1167,7 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
@@ -1175,13 +1175,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,18 +1805,18 @@
   </sheetPr>
   <dimension ref="A1:IQ33"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="42" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="42" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="42" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="42" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2599,7 +2599,7 @@
         <v>78</v>
       </c>
       <c r="B4" s="44" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="44" t="n">
         <v>0</v>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -1175,13 +1175,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4642857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.6122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.1530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.91326530612245"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.31632653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1806,17 +1806,17 @@
   <dimension ref="A1:IQ33"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="42" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="42" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="19.1173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="42" width="27.3214285714286"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="42" width="9.28571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.4234693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2602,7 +2602,7 @@
         <v>0.5</v>
       </c>
       <c r="C4" s="44" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0">
+    <comment ref="A4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="0">
+    <comment ref="A27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
   <si>
     <t>Sim</t>
   </si>
@@ -487,12 +487,6 @@
     <t>useCam</t>
   </si>
   <si>
-    <t>Xkm</t>
-  </si>
-  <si>
-    <t>Zkm</t>
-  </si>
-  <si>
     <t>nCutPix</t>
   </si>
   <si>
@@ -542,12 +536,6 @@
   </si>
   <si>
     <t>savgolOrder</t>
-  </si>
-  <si>
-    <t>latWGS84</t>
-  </si>
-  <si>
-    <t>lonWGS84</t>
   </si>
   <si>
     <t>Bincl</t>
@@ -862,7 +850,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1039,11 +1027,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1073,10 +1061,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1167,21 +1151,21 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4642857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.1530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.91326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.31632653061224"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1694,7 +1678,7 @@
       <c r="C54" s="0"/>
       <c r="D54" s="5"/>
       <c r="E54" s="38" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,20 +1787,19 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IQ33"/>
+  <dimension ref="A1:IQ28"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="19.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="42" width="27.3214285714286"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="42" width="9.28571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="42" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="42" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,15 +2318,15 @@
       <c r="IP2" s="0"/>
       <c r="IQ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="44" t="n">
-        <v>3.1436</v>
+      <c r="B3" s="4" t="n">
+        <v>512</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>512</v>
       </c>
       <c r="D3" s="0"/>
       <c r="E3" s="0"/>
@@ -2595,14 +2578,14 @@
       <c r="IQ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="44" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="44" t="n">
-        <v>0.21</v>
+      <c r="B4" s="45" t="n">
+        <v>90</v>
+      </c>
+      <c r="C4" s="45" t="n">
+        <v>88.0172525718237</v>
       </c>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
@@ -2853,15 +2836,15 @@
       <c r="IP4" s="0"/>
       <c r="IQ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>512</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>512</v>
+      <c r="B5" s="45" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" s="45" t="n">
+        <v>9</v>
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
@@ -3112,15 +3095,15 @@
       <c r="IP5" s="0"/>
       <c r="IQ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="45" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="44" t="n">
-        <v>90</v>
-      </c>
-      <c r="C6" s="44" t="n">
-        <v>88.0172525718237</v>
+      <c r="B6" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1500</v>
       </c>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
@@ -3371,16 +3354,12 @@
       <c r="IP6" s="0"/>
       <c r="IQ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="44" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" s="44" t="n">
-        <v>9</v>
-      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
@@ -3631,15 +3610,11 @@
       <c r="IQ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1500</v>
-      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
@@ -3893,8 +3868,12 @@
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="48" t="n">
+        <v>-0.188679245283019</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -4148,8 +4127,12 @@
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
+      <c r="B10" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>86</v>
+      </c>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -4400,15 +4383,9 @@
       <c r="IQ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="48" t="n">
-        <v>-0.188679245283019</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -4660,13 +4637,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>88</v>
+      <c r="B12" s="51" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" s="52" t="n">
+        <v>1000</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -4918,9 +4895,15 @@
       <c r="IQ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="50"/>
+      <c r="A13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="51" t="n">
+        <v>35000</v>
+      </c>
+      <c r="C13" s="52" t="n">
+        <v>2500</v>
+      </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
@@ -5174,11 +5157,12 @@
       <c r="A14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="51" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" s="52" t="n">
-        <v>1000</v>
+      <c r="B14" s="4" t="n">
+        <f aca="false">1/11</f>
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
@@ -5433,12 +5417,8 @@
       <c r="A15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="51" t="n">
-        <v>35000</v>
-      </c>
-      <c r="C15" s="52" t="n">
-        <v>2500</v>
-      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -5692,11 +5672,11 @@
       <c r="A16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>0.1</v>
+      <c r="B16" s="0" t="n">
+        <v>2200</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1</v>
+        <v>2200</v>
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
@@ -5948,9 +5928,7 @@
       <c r="IQ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A17" s="0"/>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
       <c r="D17" s="0"/>
@@ -6204,17 +6182,17 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>2200</v>
+        <v>92</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>15</v>
       </c>
       <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
@@ -6462,12 +6440,18 @@
       <c r="IQ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
+      <c r="A19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="1"/>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
@@ -6715,548 +6699,52 @@
       <c r="IQ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D20" s="0"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
-      <c r="M20" s="0"/>
-      <c r="N20" s="0"/>
-      <c r="O20" s="0"/>
-      <c r="P20" s="0"/>
-      <c r="Q20" s="0"/>
-      <c r="R20" s="0"/>
-      <c r="S20" s="0"/>
-      <c r="T20" s="0"/>
-      <c r="U20" s="0"/>
-      <c r="V20" s="0"/>
-      <c r="W20" s="0"/>
-      <c r="X20" s="0"/>
-      <c r="Y20" s="0"/>
-      <c r="Z20" s="0"/>
-      <c r="AA20" s="0"/>
-      <c r="AB20" s="0"/>
-      <c r="AC20" s="0"/>
-      <c r="AD20" s="0"/>
-      <c r="AE20" s="0"/>
-      <c r="AF20" s="0"/>
-      <c r="AG20" s="0"/>
-      <c r="AH20" s="0"/>
-      <c r="AI20" s="0"/>
-      <c r="AJ20" s="0"/>
-      <c r="AK20" s="0"/>
-      <c r="AL20" s="0"/>
-      <c r="AM20" s="0"/>
-      <c r="AN20" s="0"/>
-      <c r="AO20" s="0"/>
-      <c r="AP20" s="0"/>
-      <c r="AQ20" s="0"/>
-      <c r="AR20" s="0"/>
-      <c r="AS20" s="0"/>
-      <c r="AT20" s="0"/>
-      <c r="AU20" s="0"/>
-      <c r="AV20" s="0"/>
-      <c r="AW20" s="0"/>
-      <c r="AX20" s="0"/>
-      <c r="AY20" s="0"/>
-      <c r="AZ20" s="0"/>
-      <c r="BA20" s="0"/>
-      <c r="BB20" s="0"/>
-      <c r="BC20" s="0"/>
-      <c r="BD20" s="0"/>
-      <c r="BE20" s="0"/>
-      <c r="BF20" s="0"/>
-      <c r="BG20" s="0"/>
-      <c r="BH20" s="0"/>
-      <c r="BI20" s="0"/>
-      <c r="BJ20" s="0"/>
-      <c r="BK20" s="0"/>
-      <c r="BL20" s="0"/>
-      <c r="BM20" s="0"/>
-      <c r="BN20" s="0"/>
-      <c r="BO20" s="0"/>
-      <c r="BP20" s="0"/>
-      <c r="BQ20" s="0"/>
-      <c r="BR20" s="0"/>
-      <c r="BS20" s="0"/>
-      <c r="BT20" s="0"/>
-      <c r="BU20" s="0"/>
-      <c r="BV20" s="0"/>
-      <c r="BW20" s="0"/>
-      <c r="BX20" s="0"/>
-      <c r="BY20" s="0"/>
-      <c r="BZ20" s="0"/>
-      <c r="CA20" s="0"/>
-      <c r="CB20" s="0"/>
-      <c r="CC20" s="0"/>
-      <c r="CD20" s="0"/>
-      <c r="CE20" s="0"/>
-      <c r="CF20" s="0"/>
-      <c r="CG20" s="0"/>
-      <c r="CH20" s="0"/>
-      <c r="CI20" s="0"/>
-      <c r="CJ20" s="0"/>
-      <c r="CK20" s="0"/>
-      <c r="CL20" s="0"/>
-      <c r="CM20" s="0"/>
-      <c r="CN20" s="0"/>
-      <c r="CO20" s="0"/>
-      <c r="CP20" s="0"/>
-      <c r="CQ20" s="0"/>
-      <c r="CR20" s="0"/>
-      <c r="CS20" s="0"/>
-      <c r="CT20" s="0"/>
-      <c r="CU20" s="0"/>
-      <c r="CV20" s="0"/>
-      <c r="CW20" s="0"/>
-      <c r="CX20" s="0"/>
-      <c r="CY20" s="0"/>
-      <c r="CZ20" s="0"/>
-      <c r="DA20" s="0"/>
-      <c r="DB20" s="0"/>
-      <c r="DC20" s="0"/>
-      <c r="DD20" s="0"/>
-      <c r="DE20" s="0"/>
-      <c r="DF20" s="0"/>
-      <c r="DG20" s="0"/>
-      <c r="DH20" s="0"/>
-      <c r="DI20" s="0"/>
-      <c r="DJ20" s="0"/>
-      <c r="DK20" s="0"/>
-      <c r="DL20" s="0"/>
-      <c r="DM20" s="0"/>
-      <c r="DN20" s="0"/>
-      <c r="DO20" s="0"/>
-      <c r="DP20" s="0"/>
-      <c r="DQ20" s="0"/>
-      <c r="DR20" s="0"/>
-      <c r="DS20" s="0"/>
-      <c r="DT20" s="0"/>
-      <c r="DU20" s="0"/>
-      <c r="DV20" s="0"/>
-      <c r="DW20" s="0"/>
-      <c r="DX20" s="0"/>
-      <c r="DY20" s="0"/>
-      <c r="DZ20" s="0"/>
-      <c r="EA20" s="0"/>
-      <c r="EB20" s="0"/>
-      <c r="EC20" s="0"/>
-      <c r="ED20" s="0"/>
-      <c r="EE20" s="0"/>
-      <c r="EF20" s="0"/>
-      <c r="EG20" s="0"/>
-      <c r="EH20" s="0"/>
-      <c r="EI20" s="0"/>
-      <c r="EJ20" s="0"/>
-      <c r="EK20" s="0"/>
-      <c r="EL20" s="0"/>
-      <c r="EM20" s="0"/>
-      <c r="EN20" s="0"/>
-      <c r="EO20" s="0"/>
-      <c r="EP20" s="0"/>
-      <c r="EQ20" s="0"/>
-      <c r="ER20" s="0"/>
-      <c r="ES20" s="0"/>
-      <c r="ET20" s="0"/>
-      <c r="EU20" s="0"/>
-      <c r="EV20" s="0"/>
-      <c r="EW20" s="0"/>
-      <c r="EX20" s="0"/>
-      <c r="EY20" s="0"/>
-      <c r="EZ20" s="0"/>
-      <c r="FA20" s="0"/>
-      <c r="FB20" s="0"/>
-      <c r="FC20" s="0"/>
-      <c r="FD20" s="0"/>
-      <c r="FE20" s="0"/>
-      <c r="FF20" s="0"/>
-      <c r="FG20" s="0"/>
-      <c r="FH20" s="0"/>
-      <c r="FI20" s="0"/>
-      <c r="FJ20" s="0"/>
-      <c r="FK20" s="0"/>
-      <c r="FL20" s="0"/>
-      <c r="FM20" s="0"/>
-      <c r="FN20" s="0"/>
-      <c r="FO20" s="0"/>
-      <c r="FP20" s="0"/>
-      <c r="FQ20" s="0"/>
-      <c r="FR20" s="0"/>
-      <c r="FS20" s="0"/>
-      <c r="FT20" s="0"/>
-      <c r="FU20" s="0"/>
-      <c r="FV20" s="0"/>
-      <c r="FW20" s="0"/>
-      <c r="FX20" s="0"/>
-      <c r="FY20" s="0"/>
-      <c r="FZ20" s="0"/>
-      <c r="GA20" s="0"/>
-      <c r="GB20" s="0"/>
-      <c r="GC20" s="0"/>
-      <c r="GD20" s="0"/>
-      <c r="GE20" s="0"/>
-      <c r="GF20" s="0"/>
-      <c r="GG20" s="0"/>
-      <c r="GH20" s="0"/>
-      <c r="GI20" s="0"/>
-      <c r="GJ20" s="0"/>
-      <c r="GK20" s="0"/>
-      <c r="GL20" s="0"/>
-      <c r="GM20" s="0"/>
-      <c r="GN20" s="0"/>
-      <c r="GO20" s="0"/>
-      <c r="GP20" s="0"/>
-      <c r="GQ20" s="0"/>
-      <c r="GR20" s="0"/>
-      <c r="GS20" s="0"/>
-      <c r="GT20" s="0"/>
-      <c r="GU20" s="0"/>
-      <c r="GV20" s="0"/>
-      <c r="GW20" s="0"/>
-      <c r="GX20" s="0"/>
-      <c r="GY20" s="0"/>
-      <c r="GZ20" s="0"/>
-      <c r="HA20" s="0"/>
-      <c r="HB20" s="0"/>
-      <c r="HC20" s="0"/>
-      <c r="HD20" s="0"/>
-      <c r="HE20" s="0"/>
-      <c r="HF20" s="0"/>
-      <c r="HG20" s="0"/>
-      <c r="HH20" s="0"/>
-      <c r="HI20" s="0"/>
-      <c r="HJ20" s="0"/>
-      <c r="HK20" s="0"/>
-      <c r="HL20" s="0"/>
-      <c r="HM20" s="0"/>
-      <c r="HN20" s="0"/>
-      <c r="HO20" s="0"/>
-      <c r="HP20" s="0"/>
-      <c r="HQ20" s="0"/>
-      <c r="HR20" s="0"/>
-      <c r="HS20" s="0"/>
-      <c r="HT20" s="0"/>
-      <c r="HU20" s="0"/>
-      <c r="HV20" s="0"/>
-      <c r="HW20" s="0"/>
-      <c r="HX20" s="0"/>
-      <c r="HY20" s="0"/>
-      <c r="HZ20" s="0"/>
-      <c r="IA20" s="0"/>
-      <c r="IB20" s="0"/>
-      <c r="IC20" s="0"/>
-      <c r="ID20" s="0"/>
-      <c r="IE20" s="0"/>
-      <c r="IF20" s="0"/>
-      <c r="IG20" s="0"/>
-      <c r="IH20" s="0"/>
-      <c r="II20" s="0"/>
-      <c r="IJ20" s="0"/>
-      <c r="IK20" s="0"/>
-      <c r="IL20" s="0"/>
-      <c r="IM20" s="0"/>
-      <c r="IN20" s="0"/>
-      <c r="IO20" s="0"/>
-      <c r="IP20" s="0"/>
-      <c r="IQ20" s="0"/>
+      <c r="A20" s="0"/>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>77.51</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" s="0"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="0"/>
-      <c r="N21" s="0"/>
-      <c r="O21" s="0"/>
-      <c r="P21" s="0"/>
-      <c r="Q21" s="0"/>
-      <c r="R21" s="0"/>
-      <c r="S21" s="0"/>
-      <c r="T21" s="0"/>
-      <c r="U21" s="0"/>
-      <c r="V21" s="0"/>
-      <c r="W21" s="0"/>
-      <c r="X21" s="0"/>
-      <c r="Y21" s="0"/>
-      <c r="Z21" s="0"/>
-      <c r="AA21" s="0"/>
-      <c r="AB21" s="0"/>
-      <c r="AC21" s="0"/>
-      <c r="AD21" s="0"/>
-      <c r="AE21" s="0"/>
-      <c r="AF21" s="0"/>
-      <c r="AG21" s="0"/>
-      <c r="AH21" s="0"/>
-      <c r="AI21" s="0"/>
-      <c r="AJ21" s="0"/>
-      <c r="AK21" s="0"/>
-      <c r="AL21" s="0"/>
-      <c r="AM21" s="0"/>
-      <c r="AN21" s="0"/>
-      <c r="AO21" s="0"/>
-      <c r="AP21" s="0"/>
-      <c r="AQ21" s="0"/>
-      <c r="AR21" s="0"/>
-      <c r="AS21" s="0"/>
-      <c r="AT21" s="0"/>
-      <c r="AU21" s="0"/>
-      <c r="AV21" s="0"/>
-      <c r="AW21" s="0"/>
-      <c r="AX21" s="0"/>
-      <c r="AY21" s="0"/>
-      <c r="AZ21" s="0"/>
-      <c r="BA21" s="0"/>
-      <c r="BB21" s="0"/>
-      <c r="BC21" s="0"/>
-      <c r="BD21" s="0"/>
-      <c r="BE21" s="0"/>
-      <c r="BF21" s="0"/>
-      <c r="BG21" s="0"/>
-      <c r="BH21" s="0"/>
-      <c r="BI21" s="0"/>
-      <c r="BJ21" s="0"/>
-      <c r="BK21" s="0"/>
-      <c r="BL21" s="0"/>
-      <c r="BM21" s="0"/>
-      <c r="BN21" s="0"/>
-      <c r="BO21" s="0"/>
-      <c r="BP21" s="0"/>
-      <c r="BQ21" s="0"/>
-      <c r="BR21" s="0"/>
-      <c r="BS21" s="0"/>
-      <c r="BT21" s="0"/>
-      <c r="BU21" s="0"/>
-      <c r="BV21" s="0"/>
-      <c r="BW21" s="0"/>
-      <c r="BX21" s="0"/>
-      <c r="BY21" s="0"/>
-      <c r="BZ21" s="0"/>
-      <c r="CA21" s="0"/>
-      <c r="CB21" s="0"/>
-      <c r="CC21" s="0"/>
-      <c r="CD21" s="0"/>
-      <c r="CE21" s="0"/>
-      <c r="CF21" s="0"/>
-      <c r="CG21" s="0"/>
-      <c r="CH21" s="0"/>
-      <c r="CI21" s="0"/>
-      <c r="CJ21" s="0"/>
-      <c r="CK21" s="0"/>
-      <c r="CL21" s="0"/>
-      <c r="CM21" s="0"/>
-      <c r="CN21" s="0"/>
-      <c r="CO21" s="0"/>
-      <c r="CP21" s="0"/>
-      <c r="CQ21" s="0"/>
-      <c r="CR21" s="0"/>
-      <c r="CS21" s="0"/>
-      <c r="CT21" s="0"/>
-      <c r="CU21" s="0"/>
-      <c r="CV21" s="0"/>
-      <c r="CW21" s="0"/>
-      <c r="CX21" s="0"/>
-      <c r="CY21" s="0"/>
-      <c r="CZ21" s="0"/>
-      <c r="DA21" s="0"/>
-      <c r="DB21" s="0"/>
-      <c r="DC21" s="0"/>
-      <c r="DD21" s="0"/>
-      <c r="DE21" s="0"/>
-      <c r="DF21" s="0"/>
-      <c r="DG21" s="0"/>
-      <c r="DH21" s="0"/>
-      <c r="DI21" s="0"/>
-      <c r="DJ21" s="0"/>
-      <c r="DK21" s="0"/>
-      <c r="DL21" s="0"/>
-      <c r="DM21" s="0"/>
-      <c r="DN21" s="0"/>
-      <c r="DO21" s="0"/>
-      <c r="DP21" s="0"/>
-      <c r="DQ21" s="0"/>
-      <c r="DR21" s="0"/>
-      <c r="DS21" s="0"/>
-      <c r="DT21" s="0"/>
-      <c r="DU21" s="0"/>
-      <c r="DV21" s="0"/>
-      <c r="DW21" s="0"/>
-      <c r="DX21" s="0"/>
-      <c r="DY21" s="0"/>
-      <c r="DZ21" s="0"/>
-      <c r="EA21" s="0"/>
-      <c r="EB21" s="0"/>
-      <c r="EC21" s="0"/>
-      <c r="ED21" s="0"/>
-      <c r="EE21" s="0"/>
-      <c r="EF21" s="0"/>
-      <c r="EG21" s="0"/>
-      <c r="EH21" s="0"/>
-      <c r="EI21" s="0"/>
-      <c r="EJ21" s="0"/>
-      <c r="EK21" s="0"/>
-      <c r="EL21" s="0"/>
-      <c r="EM21" s="0"/>
-      <c r="EN21" s="0"/>
-      <c r="EO21" s="0"/>
-      <c r="EP21" s="0"/>
-      <c r="EQ21" s="0"/>
-      <c r="ER21" s="0"/>
-      <c r="ES21" s="0"/>
-      <c r="ET21" s="0"/>
-      <c r="EU21" s="0"/>
-      <c r="EV21" s="0"/>
-      <c r="EW21" s="0"/>
-      <c r="EX21" s="0"/>
-      <c r="EY21" s="0"/>
-      <c r="EZ21" s="0"/>
-      <c r="FA21" s="0"/>
-      <c r="FB21" s="0"/>
-      <c r="FC21" s="0"/>
-      <c r="FD21" s="0"/>
-      <c r="FE21" s="0"/>
-      <c r="FF21" s="0"/>
-      <c r="FG21" s="0"/>
-      <c r="FH21" s="0"/>
-      <c r="FI21" s="0"/>
-      <c r="FJ21" s="0"/>
-      <c r="FK21" s="0"/>
-      <c r="FL21" s="0"/>
-      <c r="FM21" s="0"/>
-      <c r="FN21" s="0"/>
-      <c r="FO21" s="0"/>
-      <c r="FP21" s="0"/>
-      <c r="FQ21" s="0"/>
-      <c r="FR21" s="0"/>
-      <c r="FS21" s="0"/>
-      <c r="FT21" s="0"/>
-      <c r="FU21" s="0"/>
-      <c r="FV21" s="0"/>
-      <c r="FW21" s="0"/>
-      <c r="FX21" s="0"/>
-      <c r="FY21" s="0"/>
-      <c r="FZ21" s="0"/>
-      <c r="GA21" s="0"/>
-      <c r="GB21" s="0"/>
-      <c r="GC21" s="0"/>
-      <c r="GD21" s="0"/>
-      <c r="GE21" s="0"/>
-      <c r="GF21" s="0"/>
-      <c r="GG21" s="0"/>
-      <c r="GH21" s="0"/>
-      <c r="GI21" s="0"/>
-      <c r="GJ21" s="0"/>
-      <c r="GK21" s="0"/>
-      <c r="GL21" s="0"/>
-      <c r="GM21" s="0"/>
-      <c r="GN21" s="0"/>
-      <c r="GO21" s="0"/>
-      <c r="GP21" s="0"/>
-      <c r="GQ21" s="0"/>
-      <c r="GR21" s="0"/>
-      <c r="GS21" s="0"/>
-      <c r="GT21" s="0"/>
-      <c r="GU21" s="0"/>
-      <c r="GV21" s="0"/>
-      <c r="GW21" s="0"/>
-      <c r="GX21" s="0"/>
-      <c r="GY21" s="0"/>
-      <c r="GZ21" s="0"/>
-      <c r="HA21" s="0"/>
-      <c r="HB21" s="0"/>
-      <c r="HC21" s="0"/>
-      <c r="HD21" s="0"/>
-      <c r="HE21" s="0"/>
-      <c r="HF21" s="0"/>
-      <c r="HG21" s="0"/>
-      <c r="HH21" s="0"/>
-      <c r="HI21" s="0"/>
-      <c r="HJ21" s="0"/>
-      <c r="HK21" s="0"/>
-      <c r="HL21" s="0"/>
-      <c r="HM21" s="0"/>
-      <c r="HN21" s="0"/>
-      <c r="HO21" s="0"/>
-      <c r="HP21" s="0"/>
-      <c r="HQ21" s="0"/>
-      <c r="HR21" s="0"/>
-      <c r="HS21" s="0"/>
-      <c r="HT21" s="0"/>
-      <c r="HU21" s="0"/>
-      <c r="HV21" s="0"/>
-      <c r="HW21" s="0"/>
-      <c r="HX21" s="0"/>
-      <c r="HY21" s="0"/>
-      <c r="HZ21" s="0"/>
-      <c r="IA21" s="0"/>
-      <c r="IB21" s="0"/>
-      <c r="IC21" s="0"/>
-      <c r="ID21" s="0"/>
-      <c r="IE21" s="0"/>
-      <c r="IF21" s="0"/>
-      <c r="IG21" s="0"/>
-      <c r="IH21" s="0"/>
-      <c r="II21" s="0"/>
-      <c r="IJ21" s="0"/>
-      <c r="IK21" s="0"/>
-      <c r="IL21" s="0"/>
-      <c r="IM21" s="0"/>
-      <c r="IN21" s="0"/>
-      <c r="IO21" s="0"/>
-      <c r="IP21" s="0"/>
-      <c r="IQ21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
+      <c r="B22" s="4" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>19.9</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="53" t="n">
-        <v>65.1186367</v>
-      </c>
-      <c r="C23" s="53" t="n">
-        <v>65.12657</v>
+      <c r="B23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="53" t="n">
-        <v>-147.432975</v>
-      </c>
-      <c r="C24" s="53" t="n">
-        <v>-147.496908333</v>
+        <v>98</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7265,86 +6753,37 @@
       <c r="C25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="4" t="n">
-        <v>77.51</v>
-      </c>
-      <c r="C26" s="4" t="n">
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="4" t="n">
-        <v>19.92</v>
-      </c>
-      <c r="C27" s="4" t="n">
-        <v>19.9</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="A26" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="55" t="n">
+      <c r="B26" s="54" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C31" s="55" t="n">
+      <c r="C26" s="54" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="42" t="n">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="42" t="n">
+      <c r="C27" s="42" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="42" t="n">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="42" t="n">
         <v>200</v>
       </c>
-      <c r="C33" s="42" t="n">
+      <c r="C28" s="42" t="n">
         <v>200</v>
       </c>
     </row>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -406,7 +406,7 @@
     <t>RayAngleMapping</t>
   </si>
   <si>
-    <t>arbitrary</t>
+    <t>astrometry</t>
   </si>
   <si>
     <t>reqStartUT</t>
@@ -1152,20 +1152,20 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
+      <selection pane="bottomLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,7 +1678,7 @@
       <c r="C54" s="0"/>
       <c r="D54" s="5"/>
       <c r="E54" s="38" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1792,14 +1792,15 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="42" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="42" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="42" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="42" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5158,8 +5159,7 @@
         <v>89</v>
       </c>
       <c r="B14" s="4" t="n">
-        <f aca="false">1/11</f>
-        <v>0.0909090909090909</v>
+        <v>0.1</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -412,13 +412,13 @@
     <t>reqStartUT</t>
   </si>
   <si>
-    <t>2013-04-14T08:54:22.100Z</t>
+    <t>2013-04-14T08:54:16Z</t>
   </si>
   <si>
     <t>reqStopUT</t>
   </si>
   <si>
-    <t>2013-04-14T08:54:22.400Z</t>
+    <t>2013-04-14T08:54:31Z</t>
   </si>
   <si>
     <t>UseTCz</t>
@@ -1154,7 +1154,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
+      <selection pane="bottomLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -223,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0">
+    <comment ref="A16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0">
+    <comment ref="A25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>Sim</t>
   </si>
@@ -412,13 +412,13 @@
     <t>reqStartUT</t>
   </si>
   <si>
-    <t>2013-04-14T08:54:16Z</t>
+    <t>2013-04-14T08:54:22.100Z</t>
   </si>
   <si>
     <t>reqStopUT</t>
   </si>
   <si>
-    <t>2013-04-14T08:54:31Z</t>
+    <t>2013-04-14T08:54:22.400Z</t>
   </si>
   <si>
     <t>UseTCz</t>
@@ -497,12 +497,6 @@
   </si>
   <si>
     <t>FOVmaxLengthKM</t>
-  </si>
-  <si>
-    <t>noiseLam</t>
-  </si>
-  <si>
-    <t>CCDBias</t>
   </si>
   <si>
     <t>timeShiftSec</t>
@@ -572,11 +566,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="0.00E+000"/>
+    <numFmt numFmtId="166" formatCode="0.00E+000"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -850,7 +843,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1039,10 +1032,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1067,7 +1056,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1154,7 +1143,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
+      <selection pane="bottomLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1596,7 +1585,7 @@
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
       <c r="D46" s="34" t="n">
-        <v>-3.8</v>
+        <v>-5</v>
       </c>
       <c r="E46" s="35"/>
       <c r="F46" s="0"/>
@@ -1608,7 +1597,7 @@
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
       <c r="D47" s="34" t="n">
-        <v>7.1</v>
+        <v>10</v>
       </c>
       <c r="E47" s="35"/>
       <c r="F47" s="0"/>
@@ -1787,12 +1776,12 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IQ28"/>
+  <dimension ref="A1:IQ26"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3359,8 +3348,12 @@
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="47" t="n">
+        <v>-0.188679245283019</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
@@ -3614,8 +3607,12 @@
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
+      <c r="B8" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>84</v>
+      </c>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
@@ -3866,15 +3863,9 @@
       <c r="IQ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="48" t="n">
-        <v>-0.188679245283019</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -4126,13 +4117,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>86</v>
+      <c r="B10" s="50" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" s="51" t="n">
+        <v>1000</v>
       </c>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
@@ -4384,9 +4375,15 @@
       <c r="IQ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="50"/>
+      <c r="A11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="50" t="n">
+        <v>35000</v>
+      </c>
+      <c r="C11" s="51" t="n">
+        <v>2500</v>
+      </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -4640,11 +4637,11 @@
       <c r="A12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="51" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" s="52" t="n">
-        <v>1000</v>
+      <c r="B12" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -4899,12 +4896,8 @@
       <c r="A13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="51" t="n">
-        <v>35000</v>
-      </c>
-      <c r="C13" s="52" t="n">
-        <v>2500</v>
-      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
@@ -5158,11 +5151,11 @@
       <c r="A14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>0.1</v>
+      <c r="B14" s="0" t="n">
+        <v>2000</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
@@ -5414,9 +5407,7 @@
       <c r="IQ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="A15" s="0"/>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="0"/>
@@ -5670,17 +5661,17 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>2200</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>2200</v>
+        <v>90</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>15</v>
       </c>
       <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
@@ -5928,12 +5919,18 @@
       <c r="IQ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
+      <c r="A17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
@@ -6181,609 +6178,91 @@
       <c r="IQ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D18" s="0"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="0"/>
-      <c r="M18" s="0"/>
-      <c r="N18" s="0"/>
-      <c r="O18" s="0"/>
-      <c r="P18" s="0"/>
-      <c r="Q18" s="0"/>
-      <c r="R18" s="0"/>
-      <c r="S18" s="0"/>
-      <c r="T18" s="0"/>
-      <c r="U18" s="0"/>
-      <c r="V18" s="0"/>
-      <c r="W18" s="0"/>
-      <c r="X18" s="0"/>
-      <c r="Y18" s="0"/>
-      <c r="Z18" s="0"/>
-      <c r="AA18" s="0"/>
-      <c r="AB18" s="0"/>
-      <c r="AC18" s="0"/>
-      <c r="AD18" s="0"/>
-      <c r="AE18" s="0"/>
-      <c r="AF18" s="0"/>
-      <c r="AG18" s="0"/>
-      <c r="AH18" s="0"/>
-      <c r="AI18" s="0"/>
-      <c r="AJ18" s="0"/>
-      <c r="AK18" s="0"/>
-      <c r="AL18" s="0"/>
-      <c r="AM18" s="0"/>
-      <c r="AN18" s="0"/>
-      <c r="AO18" s="0"/>
-      <c r="AP18" s="0"/>
-      <c r="AQ18" s="0"/>
-      <c r="AR18" s="0"/>
-      <c r="AS18" s="0"/>
-      <c r="AT18" s="0"/>
-      <c r="AU18" s="0"/>
-      <c r="AV18" s="0"/>
-      <c r="AW18" s="0"/>
-      <c r="AX18" s="0"/>
-      <c r="AY18" s="0"/>
-      <c r="AZ18" s="0"/>
-      <c r="BA18" s="0"/>
-      <c r="BB18" s="0"/>
-      <c r="BC18" s="0"/>
-      <c r="BD18" s="0"/>
-      <c r="BE18" s="0"/>
-      <c r="BF18" s="0"/>
-      <c r="BG18" s="0"/>
-      <c r="BH18" s="0"/>
-      <c r="BI18" s="0"/>
-      <c r="BJ18" s="0"/>
-      <c r="BK18" s="0"/>
-      <c r="BL18" s="0"/>
-      <c r="BM18" s="0"/>
-      <c r="BN18" s="0"/>
-      <c r="BO18" s="0"/>
-      <c r="BP18" s="0"/>
-      <c r="BQ18" s="0"/>
-      <c r="BR18" s="0"/>
-      <c r="BS18" s="0"/>
-      <c r="BT18" s="0"/>
-      <c r="BU18" s="0"/>
-      <c r="BV18" s="0"/>
-      <c r="BW18" s="0"/>
-      <c r="BX18" s="0"/>
-      <c r="BY18" s="0"/>
-      <c r="BZ18" s="0"/>
-      <c r="CA18" s="0"/>
-      <c r="CB18" s="0"/>
-      <c r="CC18" s="0"/>
-      <c r="CD18" s="0"/>
-      <c r="CE18" s="0"/>
-      <c r="CF18" s="0"/>
-      <c r="CG18" s="0"/>
-      <c r="CH18" s="0"/>
-      <c r="CI18" s="0"/>
-      <c r="CJ18" s="0"/>
-      <c r="CK18" s="0"/>
-      <c r="CL18" s="0"/>
-      <c r="CM18" s="0"/>
-      <c r="CN18" s="0"/>
-      <c r="CO18" s="0"/>
-      <c r="CP18" s="0"/>
-      <c r="CQ18" s="0"/>
-      <c r="CR18" s="0"/>
-      <c r="CS18" s="0"/>
-      <c r="CT18" s="0"/>
-      <c r="CU18" s="0"/>
-      <c r="CV18" s="0"/>
-      <c r="CW18" s="0"/>
-      <c r="CX18" s="0"/>
-      <c r="CY18" s="0"/>
-      <c r="CZ18" s="0"/>
-      <c r="DA18" s="0"/>
-      <c r="DB18" s="0"/>
-      <c r="DC18" s="0"/>
-      <c r="DD18" s="0"/>
-      <c r="DE18" s="0"/>
-      <c r="DF18" s="0"/>
-      <c r="DG18" s="0"/>
-      <c r="DH18" s="0"/>
-      <c r="DI18" s="0"/>
-      <c r="DJ18" s="0"/>
-      <c r="DK18" s="0"/>
-      <c r="DL18" s="0"/>
-      <c r="DM18" s="0"/>
-      <c r="DN18" s="0"/>
-      <c r="DO18" s="0"/>
-      <c r="DP18" s="0"/>
-      <c r="DQ18" s="0"/>
-      <c r="DR18" s="0"/>
-      <c r="DS18" s="0"/>
-      <c r="DT18" s="0"/>
-      <c r="DU18" s="0"/>
-      <c r="DV18" s="0"/>
-      <c r="DW18" s="0"/>
-      <c r="DX18" s="0"/>
-      <c r="DY18" s="0"/>
-      <c r="DZ18" s="0"/>
-      <c r="EA18" s="0"/>
-      <c r="EB18" s="0"/>
-      <c r="EC18" s="0"/>
-      <c r="ED18" s="0"/>
-      <c r="EE18" s="0"/>
-      <c r="EF18" s="0"/>
-      <c r="EG18" s="0"/>
-      <c r="EH18" s="0"/>
-      <c r="EI18" s="0"/>
-      <c r="EJ18" s="0"/>
-      <c r="EK18" s="0"/>
-      <c r="EL18" s="0"/>
-      <c r="EM18" s="0"/>
-      <c r="EN18" s="0"/>
-      <c r="EO18" s="0"/>
-      <c r="EP18" s="0"/>
-      <c r="EQ18" s="0"/>
-      <c r="ER18" s="0"/>
-      <c r="ES18" s="0"/>
-      <c r="ET18" s="0"/>
-      <c r="EU18" s="0"/>
-      <c r="EV18" s="0"/>
-      <c r="EW18" s="0"/>
-      <c r="EX18" s="0"/>
-      <c r="EY18" s="0"/>
-      <c r="EZ18" s="0"/>
-      <c r="FA18" s="0"/>
-      <c r="FB18" s="0"/>
-      <c r="FC18" s="0"/>
-      <c r="FD18" s="0"/>
-      <c r="FE18" s="0"/>
-      <c r="FF18" s="0"/>
-      <c r="FG18" s="0"/>
-      <c r="FH18" s="0"/>
-      <c r="FI18" s="0"/>
-      <c r="FJ18" s="0"/>
-      <c r="FK18" s="0"/>
-      <c r="FL18" s="0"/>
-      <c r="FM18" s="0"/>
-      <c r="FN18" s="0"/>
-      <c r="FO18" s="0"/>
-      <c r="FP18" s="0"/>
-      <c r="FQ18" s="0"/>
-      <c r="FR18" s="0"/>
-      <c r="FS18" s="0"/>
-      <c r="FT18" s="0"/>
-      <c r="FU18" s="0"/>
-      <c r="FV18" s="0"/>
-      <c r="FW18" s="0"/>
-      <c r="FX18" s="0"/>
-      <c r="FY18" s="0"/>
-      <c r="FZ18" s="0"/>
-      <c r="GA18" s="0"/>
-      <c r="GB18" s="0"/>
-      <c r="GC18" s="0"/>
-      <c r="GD18" s="0"/>
-      <c r="GE18" s="0"/>
-      <c r="GF18" s="0"/>
-      <c r="GG18" s="0"/>
-      <c r="GH18" s="0"/>
-      <c r="GI18" s="0"/>
-      <c r="GJ18" s="0"/>
-      <c r="GK18" s="0"/>
-      <c r="GL18" s="0"/>
-      <c r="GM18" s="0"/>
-      <c r="GN18" s="0"/>
-      <c r="GO18" s="0"/>
-      <c r="GP18" s="0"/>
-      <c r="GQ18" s="0"/>
-      <c r="GR18" s="0"/>
-      <c r="GS18" s="0"/>
-      <c r="GT18" s="0"/>
-      <c r="GU18" s="0"/>
-      <c r="GV18" s="0"/>
-      <c r="GW18" s="0"/>
-      <c r="GX18" s="0"/>
-      <c r="GY18" s="0"/>
-      <c r="GZ18" s="0"/>
-      <c r="HA18" s="0"/>
-      <c r="HB18" s="0"/>
-      <c r="HC18" s="0"/>
-      <c r="HD18" s="0"/>
-      <c r="HE18" s="0"/>
-      <c r="HF18" s="0"/>
-      <c r="HG18" s="0"/>
-      <c r="HH18" s="0"/>
-      <c r="HI18" s="0"/>
-      <c r="HJ18" s="0"/>
-      <c r="HK18" s="0"/>
-      <c r="HL18" s="0"/>
-      <c r="HM18" s="0"/>
-      <c r="HN18" s="0"/>
-      <c r="HO18" s="0"/>
-      <c r="HP18" s="0"/>
-      <c r="HQ18" s="0"/>
-      <c r="HR18" s="0"/>
-      <c r="HS18" s="0"/>
-      <c r="HT18" s="0"/>
-      <c r="HU18" s="0"/>
-      <c r="HV18" s="0"/>
-      <c r="HW18" s="0"/>
-      <c r="HX18" s="0"/>
-      <c r="HY18" s="0"/>
-      <c r="HZ18" s="0"/>
-      <c r="IA18" s="0"/>
-      <c r="IB18" s="0"/>
-      <c r="IC18" s="0"/>
-      <c r="ID18" s="0"/>
-      <c r="IE18" s="0"/>
-      <c r="IF18" s="0"/>
-      <c r="IG18" s="0"/>
-      <c r="IH18" s="0"/>
-      <c r="II18" s="0"/>
-      <c r="IJ18" s="0"/>
-      <c r="IK18" s="0"/>
-      <c r="IL18" s="0"/>
-      <c r="IM18" s="0"/>
-      <c r="IN18" s="0"/>
-      <c r="IO18" s="0"/>
-      <c r="IP18" s="0"/>
-      <c r="IQ18" s="0"/>
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>77.51</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" s="0"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="0"/>
-      <c r="N19" s="0"/>
-      <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
-      <c r="S19" s="0"/>
-      <c r="T19" s="0"/>
-      <c r="U19" s="0"/>
-      <c r="V19" s="0"/>
-      <c r="W19" s="0"/>
-      <c r="X19" s="0"/>
-      <c r="Y19" s="0"/>
-      <c r="Z19" s="0"/>
-      <c r="AA19" s="0"/>
-      <c r="AB19" s="0"/>
-      <c r="AC19" s="0"/>
-      <c r="AD19" s="0"/>
-      <c r="AE19" s="0"/>
-      <c r="AF19" s="0"/>
-      <c r="AG19" s="0"/>
-      <c r="AH19" s="0"/>
-      <c r="AI19" s="0"/>
-      <c r="AJ19" s="0"/>
-      <c r="AK19" s="0"/>
-      <c r="AL19" s="0"/>
-      <c r="AM19" s="0"/>
-      <c r="AN19" s="0"/>
-      <c r="AO19" s="0"/>
-      <c r="AP19" s="0"/>
-      <c r="AQ19" s="0"/>
-      <c r="AR19" s="0"/>
-      <c r="AS19" s="0"/>
-      <c r="AT19" s="0"/>
-      <c r="AU19" s="0"/>
-      <c r="AV19" s="0"/>
-      <c r="AW19" s="0"/>
-      <c r="AX19" s="0"/>
-      <c r="AY19" s="0"/>
-      <c r="AZ19" s="0"/>
-      <c r="BA19" s="0"/>
-      <c r="BB19" s="0"/>
-      <c r="BC19" s="0"/>
-      <c r="BD19" s="0"/>
-      <c r="BE19" s="0"/>
-      <c r="BF19" s="0"/>
-      <c r="BG19" s="0"/>
-      <c r="BH19" s="0"/>
-      <c r="BI19" s="0"/>
-      <c r="BJ19" s="0"/>
-      <c r="BK19" s="0"/>
-      <c r="BL19" s="0"/>
-      <c r="BM19" s="0"/>
-      <c r="BN19" s="0"/>
-      <c r="BO19" s="0"/>
-      <c r="BP19" s="0"/>
-      <c r="BQ19" s="0"/>
-      <c r="BR19" s="0"/>
-      <c r="BS19" s="0"/>
-      <c r="BT19" s="0"/>
-      <c r="BU19" s="0"/>
-      <c r="BV19" s="0"/>
-      <c r="BW19" s="0"/>
-      <c r="BX19" s="0"/>
-      <c r="BY19" s="0"/>
-      <c r="BZ19" s="0"/>
-      <c r="CA19" s="0"/>
-      <c r="CB19" s="0"/>
-      <c r="CC19" s="0"/>
-      <c r="CD19" s="0"/>
-      <c r="CE19" s="0"/>
-      <c r="CF19" s="0"/>
-      <c r="CG19" s="0"/>
-      <c r="CH19" s="0"/>
-      <c r="CI19" s="0"/>
-      <c r="CJ19" s="0"/>
-      <c r="CK19" s="0"/>
-      <c r="CL19" s="0"/>
-      <c r="CM19" s="0"/>
-      <c r="CN19" s="0"/>
-      <c r="CO19" s="0"/>
-      <c r="CP19" s="0"/>
-      <c r="CQ19" s="0"/>
-      <c r="CR19" s="0"/>
-      <c r="CS19" s="0"/>
-      <c r="CT19" s="0"/>
-      <c r="CU19" s="0"/>
-      <c r="CV19" s="0"/>
-      <c r="CW19" s="0"/>
-      <c r="CX19" s="0"/>
-      <c r="CY19" s="0"/>
-      <c r="CZ19" s="0"/>
-      <c r="DA19" s="0"/>
-      <c r="DB19" s="0"/>
-      <c r="DC19" s="0"/>
-      <c r="DD19" s="0"/>
-      <c r="DE19" s="0"/>
-      <c r="DF19" s="0"/>
-      <c r="DG19" s="0"/>
-      <c r="DH19" s="0"/>
-      <c r="DI19" s="0"/>
-      <c r="DJ19" s="0"/>
-      <c r="DK19" s="0"/>
-      <c r="DL19" s="0"/>
-      <c r="DM19" s="0"/>
-      <c r="DN19" s="0"/>
-      <c r="DO19" s="0"/>
-      <c r="DP19" s="0"/>
-      <c r="DQ19" s="0"/>
-      <c r="DR19" s="0"/>
-      <c r="DS19" s="0"/>
-      <c r="DT19" s="0"/>
-      <c r="DU19" s="0"/>
-      <c r="DV19" s="0"/>
-      <c r="DW19" s="0"/>
-      <c r="DX19" s="0"/>
-      <c r="DY19" s="0"/>
-      <c r="DZ19" s="0"/>
-      <c r="EA19" s="0"/>
-      <c r="EB19" s="0"/>
-      <c r="EC19" s="0"/>
-      <c r="ED19" s="0"/>
-      <c r="EE19" s="0"/>
-      <c r="EF19" s="0"/>
-      <c r="EG19" s="0"/>
-      <c r="EH19" s="0"/>
-      <c r="EI19" s="0"/>
-      <c r="EJ19" s="0"/>
-      <c r="EK19" s="0"/>
-      <c r="EL19" s="0"/>
-      <c r="EM19" s="0"/>
-      <c r="EN19" s="0"/>
-      <c r="EO19" s="0"/>
-      <c r="EP19" s="0"/>
-      <c r="EQ19" s="0"/>
-      <c r="ER19" s="0"/>
-      <c r="ES19" s="0"/>
-      <c r="ET19" s="0"/>
-      <c r="EU19" s="0"/>
-      <c r="EV19" s="0"/>
-      <c r="EW19" s="0"/>
-      <c r="EX19" s="0"/>
-      <c r="EY19" s="0"/>
-      <c r="EZ19" s="0"/>
-      <c r="FA19" s="0"/>
-      <c r="FB19" s="0"/>
-      <c r="FC19" s="0"/>
-      <c r="FD19" s="0"/>
-      <c r="FE19" s="0"/>
-      <c r="FF19" s="0"/>
-      <c r="FG19" s="0"/>
-      <c r="FH19" s="0"/>
-      <c r="FI19" s="0"/>
-      <c r="FJ19" s="0"/>
-      <c r="FK19" s="0"/>
-      <c r="FL19" s="0"/>
-      <c r="FM19" s="0"/>
-      <c r="FN19" s="0"/>
-      <c r="FO19" s="0"/>
-      <c r="FP19" s="0"/>
-      <c r="FQ19" s="0"/>
-      <c r="FR19" s="0"/>
-      <c r="FS19" s="0"/>
-      <c r="FT19" s="0"/>
-      <c r="FU19" s="0"/>
-      <c r="FV19" s="0"/>
-      <c r="FW19" s="0"/>
-      <c r="FX19" s="0"/>
-      <c r="FY19" s="0"/>
-      <c r="FZ19" s="0"/>
-      <c r="GA19" s="0"/>
-      <c r="GB19" s="0"/>
-      <c r="GC19" s="0"/>
-      <c r="GD19" s="0"/>
-      <c r="GE19" s="0"/>
-      <c r="GF19" s="0"/>
-      <c r="GG19" s="0"/>
-      <c r="GH19" s="0"/>
-      <c r="GI19" s="0"/>
-      <c r="GJ19" s="0"/>
-      <c r="GK19" s="0"/>
-      <c r="GL19" s="0"/>
-      <c r="GM19" s="0"/>
-      <c r="GN19" s="0"/>
-      <c r="GO19" s="0"/>
-      <c r="GP19" s="0"/>
-      <c r="GQ19" s="0"/>
-      <c r="GR19" s="0"/>
-      <c r="GS19" s="0"/>
-      <c r="GT19" s="0"/>
-      <c r="GU19" s="0"/>
-      <c r="GV19" s="0"/>
-      <c r="GW19" s="0"/>
-      <c r="GX19" s="0"/>
-      <c r="GY19" s="0"/>
-      <c r="GZ19" s="0"/>
-      <c r="HA19" s="0"/>
-      <c r="HB19" s="0"/>
-      <c r="HC19" s="0"/>
-      <c r="HD19" s="0"/>
-      <c r="HE19" s="0"/>
-      <c r="HF19" s="0"/>
-      <c r="HG19" s="0"/>
-      <c r="HH19" s="0"/>
-      <c r="HI19" s="0"/>
-      <c r="HJ19" s="0"/>
-      <c r="HK19" s="0"/>
-      <c r="HL19" s="0"/>
-      <c r="HM19" s="0"/>
-      <c r="HN19" s="0"/>
-      <c r="HO19" s="0"/>
-      <c r="HP19" s="0"/>
-      <c r="HQ19" s="0"/>
-      <c r="HR19" s="0"/>
-      <c r="HS19" s="0"/>
-      <c r="HT19" s="0"/>
-      <c r="HU19" s="0"/>
-      <c r="HV19" s="0"/>
-      <c r="HW19" s="0"/>
-      <c r="HX19" s="0"/>
-      <c r="HY19" s="0"/>
-      <c r="HZ19" s="0"/>
-      <c r="IA19" s="0"/>
-      <c r="IB19" s="0"/>
-      <c r="IC19" s="0"/>
-      <c r="ID19" s="0"/>
-      <c r="IE19" s="0"/>
-      <c r="IF19" s="0"/>
-      <c r="IG19" s="0"/>
-      <c r="IH19" s="0"/>
-      <c r="II19" s="0"/>
-      <c r="IJ19" s="0"/>
-      <c r="IK19" s="0"/>
-      <c r="IL19" s="0"/>
-      <c r="IM19" s="0"/>
-      <c r="IN19" s="0"/>
-      <c r="IO19" s="0"/>
-      <c r="IP19" s="0"/>
-      <c r="IQ19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
+      <c r="B20" s="4" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>19.9</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>77.51</v>
-      </c>
-      <c r="C21" s="4" t="n">
-        <v>77.5</v>
+      <c r="B21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="4" t="n">
-        <v>19.92</v>
-      </c>
-      <c r="C22" s="4" t="n">
-        <v>19.9</v>
+        <v>96</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="A23" s="0"/>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="54" t="n">
+      <c r="B24" s="53" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C26" s="54" t="n">
+      <c r="C24" s="53" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="42" t="n">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="42" t="n">
+      <c r="C25" s="42" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="42" t="n">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="42" t="n">
         <v>200</v>
       </c>
-      <c r="C28" s="42" t="n">
+      <c r="C26" s="42" t="n">
         <v>200</v>
       </c>
     </row>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -1140,21 +1140,20 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
+      <selection pane="bottomLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.20918367346939"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.3010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1778,18 +1777,18 @@
   </sheetPr>
   <dimension ref="A1:IQ26"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="42" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="42" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="42" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="42" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4638,7 +4637,8 @@
         <v>87</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>0.1</v>
+        <f aca="false">1/9</f>
+        <v>0.111111111111111</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -5152,10 +5152,10 @@
         <v>89</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -256,310 +256,310 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>Cams</t>
-  </si>
-  <si>
-    <t>Fwdf</t>
-  </si>
-  <si>
-    <t>Recon</t>
-  </si>
-  <si>
-    <t>Transcar</t>
-  </si>
-  <si>
-    <t>COMMENT1</t>
-  </si>
-  <si>
-    <t>COMMENT2</t>
-  </si>
-  <si>
-    <t>cal1Ddir</t>
-  </si>
-  <si>
-    <t>precompute/</t>
-  </si>
-  <si>
-    <t>ActualDataDir</t>
-  </si>
-  <si>
-    <t>~/data/2013-04-14/HST</t>
-  </si>
-  <si>
-    <t>BG3transFN</t>
-  </si>
-  <si>
-    <t>precompute/BG3transmittance.h5</t>
-  </si>
-  <si>
-    <t>windowFN</t>
-  </si>
-  <si>
-    <t>precompute/ixonWindowT.h5</t>
-  </si>
-  <si>
-    <t>emccdQEfn</t>
-  </si>
-  <si>
-    <t>precompute/emccdQE.h5</t>
-  </si>
-  <si>
-    <t>TranscarDataDir</t>
-  </si>
-  <si>
-    <t>test/data</t>
-  </si>
-  <si>
-    <t>ExcitationDATfn</t>
-  </si>
-  <si>
-    <t>emissions.dat</t>
-  </si>
-  <si>
-    <t>tReq</t>
-  </si>
-  <si>
-    <t>2013-03-31T09:00:30Z</t>
-  </si>
-  <si>
-    <t>timestepsPerExposure</t>
-  </si>
-  <si>
-    <t>simconfig</t>
-  </si>
-  <si>
-    <t>DATCAR</t>
-  </si>
-  <si>
-    <t>useActualData</t>
-  </si>
-  <si>
-    <t>minBeameV</t>
-  </si>
-  <si>
-    <t>BeamEnergyFN</t>
-  </si>
-  <si>
-    <t>test/data/BT_E1E2prev.csv</t>
-  </si>
-  <si>
-    <t>reactionParam</t>
-  </si>
-  <si>
-    <t>precompute/vjeinfc.h5</t>
-  </si>
-  <si>
-    <t>altitudePreload</t>
-  </si>
-  <si>
-    <t>test/data/conttanh.dat</t>
-  </si>
-  <si>
-    <t>downsampleEnergy</t>
-  </si>
-  <si>
-    <t>lambdamin</t>
-  </si>
-  <si>
-    <t>lambdamax</t>
-  </si>
-  <si>
-    <t>OpticalFilter</t>
-  </si>
-  <si>
-    <t>bg3</t>
-  </si>
-  <si>
-    <t>metastable</t>
-  </si>
-  <si>
-    <t>atomic</t>
-  </si>
-  <si>
-    <t>N21NG</t>
-  </si>
-  <si>
-    <t>N2Meinel</t>
-  </si>
-  <si>
-    <t>N22PG</t>
-  </si>
-  <si>
-    <t>N21PG</t>
-  </si>
-  <si>
-    <t>loadVER</t>
-  </si>
-  <si>
-    <t>verfn</t>
-  </si>
-  <si>
-    <t>saveEll</t>
-  </si>
-  <si>
-    <t>loadEll</t>
-  </si>
-  <si>
-    <t>RayAngleMapping</t>
-  </si>
-  <si>
-    <t>astrometry</t>
-  </si>
-  <si>
-    <t>reqStartUT</t>
-  </si>
-  <si>
-    <t>2013-04-14T08:54:22.100Z</t>
-  </si>
-  <si>
-    <t>reqStopUT</t>
-  </si>
-  <si>
-    <t>2013-04-14T08:54:22.400Z</t>
-  </si>
-  <si>
-    <t>UseTCz</t>
-  </si>
-  <si>
-    <t>XcellKM</t>
-  </si>
-  <si>
-    <t>ZcellKM</t>
-  </si>
-  <si>
-    <t>XminKM</t>
-  </si>
-  <si>
-    <t>XmaxKM</t>
-  </si>
-  <si>
-    <t>ZminKM</t>
-  </si>
-  <si>
-    <t>ZmaxKM</t>
-  </si>
-  <si>
-    <t>maxentLambda</t>
-  </si>
-  <si>
-    <t>OptimFluxMethod</t>
-  </si>
-  <si>
-    <t>L-BFGS-B</t>
-  </si>
-  <si>
-    <t>OptimMaxiter</t>
-  </si>
-  <si>
-    <t>minflux</t>
-  </si>
-  <si>
-    <t>mingaussEv</t>
-  </si>
-  <si>
-    <t>maxIter</t>
-  </si>
-  <si>
-    <t>stoprule</t>
-  </si>
-  <si>
-    <t>lambda</t>
-  </si>
-  <si>
-    <t>initVector</t>
-  </si>
-  <si>
-    <t>MDPtauDelta</t>
-  </si>
-  <si>
-    <t>TSVD</t>
-  </si>
-  <si>
-    <t>EllIs</t>
-  </si>
-  <si>
-    <t>lineLength</t>
-  </si>
-  <si>
-    <t>useCam</t>
-  </si>
-  <si>
-    <t>nCutPix</t>
-  </si>
-  <si>
-    <t>boresightElevDeg</t>
-  </si>
-  <si>
-    <t>FOVdeg</t>
-  </si>
-  <si>
-    <t>FOVmaxLengthKM</t>
-  </si>
-  <si>
-    <t>timeShiftSec</t>
-  </si>
-  <si>
-    <t>fn</t>
-  </si>
-  <si>
-    <t>2013-04-14T8-54_hst0.h5</t>
-  </si>
-  <si>
-    <t>2013-04-14T8-54_hst1.h5</t>
-  </si>
-  <si>
-    <t>plotMinVal</t>
-  </si>
-  <si>
-    <t>plotMaxVal</t>
-  </si>
-  <si>
-    <t>intensityScaleFactor</t>
-  </si>
-  <si>
-    <t>lowerthres</t>
-  </si>
-  <si>
-    <t>debiasData</t>
-  </si>
-  <si>
-    <t>smoothspan</t>
-  </si>
-  <si>
-    <t>savgolOrder</t>
-  </si>
-  <si>
-    <t>Bincl</t>
-  </si>
-  <si>
-    <t>Bdecl</t>
-  </si>
-  <si>
-    <t>Bepoch</t>
-  </si>
-  <si>
-    <t>2013-04-14T08:54:00Z</t>
-  </si>
-  <si>
-    <t>cal1Dname</t>
-  </si>
-  <si>
-    <t>hst0cal.h5</t>
-  </si>
-  <si>
-    <t>hst1cal.h5</t>
-  </si>
-  <si>
-    <t>pixarea_sqcm</t>
-  </si>
-  <si>
-    <t>pedn</t>
-  </si>
-  <si>
-    <t>ampgain</t>
+    <t xml:space="preserve">Sim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fwdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMENT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMENT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cal1Ddir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precompute/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActualDataDir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~/data/2013-04-14/HST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG3transFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precompute/BG3transmittance.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">windowFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precompute/ixonWindowT.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emccdQEfn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precompute/emccdQE.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TranscarDataDir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test/data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExcitationDATfn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emissions.dat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tReq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-03-31T09:00:30Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timestepsPerExposure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simconfig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATCAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">useActualData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minBeameV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BeamEnergyFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test/data/BT_E1E2prev.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reactionParam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precompute/vjeinfc.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altitudePreload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test/data/conttanh.dat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">downsampleEnergy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambdamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambdamax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpticalFilter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bg3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metastable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atomic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N21NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2Meinel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N22PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N21PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loadVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verfn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saveEll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loadEll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RayAngleMapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">astrometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reqStartUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-04-14T08:54:22.100Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reqStopUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-04-14T08:54:22.400Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UseTCz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XcellKM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZcellKM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XminKM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XmaxKM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZminKM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZmaxKM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxentLambda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OptimFluxMethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-BFGS-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OptimMaxiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minflux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mingaussEv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxIter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stoprule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initVector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDPtauDelta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSVD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EllIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lineLength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">useCam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nCutPix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boresightElevDeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOVdeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOVmaxLengthKM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeShiftSec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-04-14T8-54_hst0.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-04-14T8-54_hst1.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plotMinVal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plotMaxVal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intensityScaleFactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lowerthres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debiasData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smoothspan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">savgolOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bincl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bdecl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bepoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-04-14T08:54:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cal1Dname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hst0cal.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hst1cal.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pixarea_sqcm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ampgain</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00E+000"/>
   </numFmts>
@@ -1140,20 +1140,21 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.9948979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.26530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.15816326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.7295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,7 +1200,7 @@
       </c>
       <c r="F4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1777,7 +1778,7 @@
   </sheetPr>
   <dimension ref="A1:IQ26"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
@@ -1785,10 +1786,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="42" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="42" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="18.0357142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="42" width="25.7040816326531"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="42" width="8.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.31632653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/in/apr14.xlsx
+++ b/in/apr14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -100,20 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A36" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Use this normally</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A38" authorId="0">
+    <comment ref="A35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="0">
+    <comment ref="A40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A61" authorId="0">
+    <comment ref="A58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A66" authorId="0">
+    <comment ref="A63" authorId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t xml:space="preserve">Sim</t>
   </si>
@@ -395,12 +382,6 @@
   </si>
   <si>
     <t xml:space="preserve">verfn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saveEll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loadEll</t>
   </si>
   <si>
     <t xml:space="preserve">RayAngleMapping</t>
@@ -571,7 +552,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00E+000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -665,14 +646,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
@@ -702,12 +675,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF3333"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF3333"/>
         <bgColor rgb="FFFF0000"/>
       </patternFill>
@@ -716,6 +683,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
         <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF3333"/>
       </patternFill>
     </fill>
     <fill>
@@ -843,7 +816,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -944,15 +917,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -960,15 +925,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -996,7 +965,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1016,19 +985,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1036,7 +1005,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1044,11 +1013,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1138,23 +1107,23 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3826530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.9948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.5357142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.71938775510204"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.26530612244898"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.15816326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.7295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.1632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,196 +1448,197 @@
       <c r="C34" s="5"/>
       <c r="F34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="26"/>
+      <c r="B35" s="0"/>
+      <c r="C35" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="F35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="22"/>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
       <c r="F36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="0"/>
+      <c r="C37" s="27" t="s">
+        <v>50</v>
+      </c>
       <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="27" t="s">
-        <v>49</v>
+      <c r="A38" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4"/>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
       <c r="F39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>51</v>
+      <c r="A40" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="B40" s="0"/>
-      <c r="C40" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="0"/>
+      <c r="C40" s="13"/>
+      <c r="F40" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>53</v>
+      <c r="A41" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="B41" s="0"/>
-      <c r="C41" s="30" t="s">
-        <v>54</v>
-      </c>
+      <c r="C41" s="0"/>
+      <c r="D41" s="31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E41" s="32"/>
       <c r="F41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4"/>
+      <c r="A42" s="30" t="s">
+        <v>55</v>
+      </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="34"/>
       <c r="F42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="25" t="s">
-        <v>55</v>
+      <c r="A43" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="B43" s="0"/>
-      <c r="C43" s="13"/>
-      <c r="F43" s="15" t="n">
-        <v>1</v>
-      </c>
+      <c r="C43" s="0"/>
+      <c r="D43" s="33" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="31" t="s">
-        <v>56</v>
+      <c r="A44" s="30" t="s">
+        <v>57</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
-      <c r="D44" s="32" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E44" s="33"/>
+      <c r="D44" s="33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" s="34"/>
       <c r="F44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="31" t="s">
-        <v>57</v>
+      <c r="A45" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
+      <c r="D45" s="33" t="n">
+        <v>89</v>
+      </c>
+      <c r="E45" s="34"/>
       <c r="F45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="31" t="s">
-        <v>58</v>
+      <c r="A46" s="30" t="s">
+        <v>59</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
-      <c r="D46" s="34" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E46" s="35"/>
+      <c r="D46" s="35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="36"/>
       <c r="F46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="31" t="s">
-        <v>59</v>
-      </c>
+      <c r="A47" s="4"/>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
-      <c r="D47" s="34" t="n">
-        <v>10</v>
-      </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="0"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
-      <c r="D48" s="34" t="n">
-        <v>89</v>
-      </c>
-      <c r="E48" s="35"/>
-      <c r="F48" s="0"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="15"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="31" t="s">
-        <v>61</v>
-      </c>
+      <c r="A49" s="4"/>
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
-      <c r="D49" s="36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="0"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4"/>
-      <c r="B50" s="0"/>
-      <c r="C50" s="0"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="A50" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="7"/>
+      <c r="E50" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="0"/>
       <c r="C51" s="0"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="15"/>
+      <c r="E51" s="37" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4"/>
+      <c r="A52" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="B52" s="0"/>
       <c r="C52" s="0"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="7"/>
-      <c r="E53" s="0" t="s">
-        <v>64</v>
+      <c r="A53" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="0"/>
+      <c r="C53" s="0"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="0"/>
-      <c r="C54" s="0"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="38" t="n">
-        <v>7</v>
-      </c>
+      <c r="A54" s="38"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
@@ -1676,10 +1646,6 @@
       </c>
       <c r="B55" s="0"/>
       <c r="C55" s="0"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
@@ -1687,34 +1653,30 @@
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5" t="n">
-        <v>800</v>
-      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="39"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
+      <c r="A57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="0"/>
+      <c r="C57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="A60" s="4"/>
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
     </row>
@@ -1724,39 +1686,20 @@
       </c>
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
+      <c r="E61" s="40"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="B62" s="0"/>
       <c r="C62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4"/>
-      <c r="B63" s="0"/>
-      <c r="C63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
+      <c r="A63" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="0"/>
-      <c r="C64" s="0"/>
-      <c r="E64" s="41"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0"/>
-      <c r="C65" s="0"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" s="5"/>
+      <c r="C63" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1786,18 +1729,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="18.0357142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="42" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="42" width="8.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.31632653061224"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="18.25"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="41" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="41" width="8.53061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.4234693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="43" t="n">
+      <c r="B1" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="n">
+      <c r="C1" s="42" t="n">
         <v>1</v>
       </c>
       <c r="D1" s="0"/>
@@ -2051,7 +1994,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2309,8 +2252,8 @@
       <c r="IQ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>77</v>
+      <c r="A3" s="30" t="s">
+        <v>75</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>512</v>
@@ -2568,13 +2511,13 @@
       <c r="IQ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="45" t="n">
+      <c r="A4" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="44" t="n">
         <v>90</v>
       </c>
-      <c r="C4" s="45" t="n">
+      <c r="C4" s="44" t="n">
         <v>88.0172525718237</v>
       </c>
       <c r="D4" s="0"/>
@@ -2827,13 +2770,13 @@
       <c r="IQ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="45" t="n">
+      <c r="A5" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="44" t="n">
         <v>9</v>
       </c>
-      <c r="C5" s="45" t="n">
+      <c r="C5" s="44" t="n">
         <v>9</v>
       </c>
       <c r="D5" s="0"/>
@@ -3086,8 +3029,8 @@
       <c r="IQ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
-        <v>80</v>
+      <c r="A6" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>1500</v>
@@ -3346,9 +3289,9 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="47" t="n">
+        <v>79</v>
+      </c>
+      <c r="B7" s="46" t="n">
         <v>-0.188679245283019</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -3605,13 +3548,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="47" t="s">
         <v>82</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>84</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
@@ -3865,7 +3808,7 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="0"/>
-      <c r="C9" s="49"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -4117,12 +4060,12 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="50" t="n">
+        <v>83</v>
+      </c>
+      <c r="B10" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="51" t="n">
+      <c r="C10" s="50" t="n">
         <v>1000</v>
       </c>
       <c r="D10" s="0"/>
@@ -4376,12 +4319,12 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="50" t="n">
+        <v>84</v>
+      </c>
+      <c r="B11" s="49" t="n">
         <v>35000</v>
       </c>
-      <c r="C11" s="51" t="n">
+      <c r="C11" s="50" t="n">
         <v>2500</v>
       </c>
       <c r="D11" s="0"/>
@@ -4635,7 +4578,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12" s="4" t="n">
         <f aca="false">1/9</f>
@@ -4895,7 +4838,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -5150,7 +5093,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1500</v>
@@ -5662,7 +5605,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>15</v>
@@ -5921,7 +5864,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>2</v>
@@ -6185,7 +6128,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>77.51</v>
@@ -6196,7 +6139,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B20" s="4" t="n">
         <v>19.92</v>
@@ -6207,24 +6150,24 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6233,37 +6176,37 @@
       <c r="C23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="53" t="n">
+      <c r="A24" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="52" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C24" s="53" t="n">
+      <c r="C24" s="52" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="42" t="n">
+      <c r="A25" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="42" t="n">
+      <c r="C25" s="41" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="42" t="n">
+      <c r="A26" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="41" t="n">
         <v>200</v>
       </c>
-      <c r="C26" s="42" t="n">
+      <c r="C26" s="41" t="n">
         <v>200</v>
       </c>
     </row>
